--- a/ModelM/Handmade/SchizoM.xlsx
+++ b/ModelM/Handmade/SchizoM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="735"/>
+    <workbookView xWindow="300" yWindow="1080" windowWidth="28200" windowHeight="15300" tabRatio="735" firstSheet="25" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4277" uniqueCount="1049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4268" uniqueCount="1052">
   <si>
     <t>UNLESS STATED OTHERWISE, THIS WORKBOOK IS ONLY A PROTOTYPE FOR TESTING PURPOSES AND ALL THE DATA IN THIS MODEL ARE FOR ILLUSTRATION ONLY.</t>
   </si>
@@ -3328,6 +3328,15 @@
   </si>
   <si>
     <t>CE-Summary</t>
+  </si>
+  <si>
+    <t>no company</t>
+  </si>
+  <si>
+    <t>no year</t>
+  </si>
+  <si>
+    <t>no data version</t>
   </si>
 </sst>
 </file>
@@ -3863,7 +3872,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="66">
+  <cellStyleXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3887,6 +3896,12 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4055,6 +4070,10 @@
     <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4073,13 +4092,37 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4100,42 +4143,14 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="66">
+  <cellStyles count="72">
     <cellStyle name="Bad" xfId="11" builtinId="27" hidden="1"/>
     <cellStyle name="Calculation" xfId="15" builtinId="22" hidden="1"/>
     <cellStyle name="Check Cell" xfId="17" builtinId="23" hidden="1"/>
@@ -4186,6 +4201,12 @@
     <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="10" builtinId="26" hidden="1"/>
     <cellStyle name="Heading 1" xfId="6" builtinId="16" hidden="1"/>
     <cellStyle name="Heading 2" xfId="7" builtinId="17" hidden="1"/>
@@ -4675,7 +4696,7 @@
   </sheetPr>
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -4687,7 +4708,7 @@
     <row r="1" spans="1:2" ht="19">
       <c r="A1" s="4" t="str">
         <f>"Index for Method M ("&amp;'CC-Net capex'!B5&amp;") for "&amp;Inputs!B6&amp;" in "&amp;Inputs!C6&amp;"  Status: "&amp;Inputs!D6&amp;""</f>
-        <v>Index for Method M (No option selected) for #VALUE! in #VALUE!  Status: #VALUE!</v>
+        <v>Index for Method M (No option selected) for no company in no year  Status: no data version</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8874,28 +8895,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="10:16" ht="24" customHeight="1">
-      <c r="J3" s="55" t="s">
+      <c r="J3" s="57" t="s">
         <v>541</v>
       </c>
-      <c r="K3" s="56"/>
-      <c r="L3" s="57"/>
-      <c r="N3" s="55" t="s">
+      <c r="K3" s="58"/>
+      <c r="L3" s="59"/>
+      <c r="N3" s="57" t="s">
         <v>542</v>
       </c>
-      <c r="O3" s="56"/>
-      <c r="P3" s="57"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="59"/>
     </row>
     <row r="4" spans="10:16">
-      <c r="J4" s="58" t="s">
+      <c r="J4" s="60" t="s">
         <v>543</v>
       </c>
-      <c r="K4" s="59"/>
-      <c r="L4" s="60"/>
-      <c r="N4" s="58" t="s">
+      <c r="K4" s="61"/>
+      <c r="L4" s="62"/>
+      <c r="N4" s="60" t="s">
         <v>544</v>
       </c>
-      <c r="O4" s="59"/>
-      <c r="P4" s="60"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="62"/>
     </row>
     <row r="5" spans="10:16">
       <c r="J5" s="26" t="s">
@@ -15951,7 +15972,9 @@
   </sheetPr>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -15963,14 +15986,14 @@
     <row r="1" spans="1:7" ht="19">
       <c r="A1" s="4" t="str">
         <f>"Inputs for Method M ("&amp;'CC-Net capex'!B5&amp;") for "&amp;Inputs!B6&amp;" in "&amp;Inputs!C6&amp;"  Status: "&amp;Inputs!D6&amp;""</f>
-        <v>Inputs for Method M (No option selected) for #VALUE! in #VALUE!  Status: #VALUE!</v>
+        <v>Inputs for Method M (No option selected) for no company in no year  Status: no data version</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:7" ht="16">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="56" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="5"/>
@@ -15997,20 +16020,20 @@
         <v>26</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>30</v>
+        <v>1049</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>30</v>
+        <v>1050</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>30</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="C7" s="17"/>
     </row>
     <row r="8" spans="1:7" ht="16">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="56" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="5"/>
@@ -16042,7 +16065,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="16">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="56" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="5"/>
@@ -16086,7 +16109,7 @@
       <c r="L20" s="12"/>
     </row>
     <row r="22" spans="1:12" ht="16">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="56" t="s">
         <v>38</v>
       </c>
     </row>
@@ -16108,7 +16131,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="16">
-      <c r="A27" s="81" t="s">
+      <c r="A27" s="56" t="s">
         <v>40</v>
       </c>
       <c r="B27" s="41"/>
@@ -16226,7 +16249,7 @@
       <c r="L31" s="41"/>
     </row>
     <row r="32" spans="1:12" ht="16">
-      <c r="A32" s="81" t="s">
+      <c r="A32" s="56" t="s">
         <v>52</v>
       </c>
       <c r="B32" s="41"/>
@@ -16394,7 +16417,7 @@
     <row r="1" spans="1:8" ht="19">
       <c r="A1" s="4" t="str">
         <f>"CC-MEAV for Method M ("&amp;'CC-Net capex'!B5&amp;") for "&amp;Inputs!B6&amp;" in "&amp;Inputs!C6&amp;"  Status: "&amp;Inputs!D6&amp;""</f>
-        <v>CC-MEAV for Method M (No option selected) for #VALUE! in #VALUE!  Status: #VALUE!</v>
+        <v>CC-MEAV for Method M (No option selected) for no company in no year  Status: no data version</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="26.25" customHeight="1">
@@ -16538,7 +16561,7 @@
     <row r="1" spans="1:8" ht="19">
       <c r="A1" s="4" t="str">
         <f>"CE-MEAV for Method M ("&amp;'CC-Net capex'!B5&amp;") for "&amp;Inputs!B6&amp;" in "&amp;Inputs!C6&amp;"  Status: "&amp;Inputs!D6&amp;""</f>
-        <v>CE-MEAV for Method M (No option selected) for #VALUE! in #VALUE!  Status: #VALUE!</v>
+        <v>CE-MEAV for Method M (No option selected) for no company in no year  Status: no data version</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="26.25" customHeight="1">
@@ -16675,7 +16698,7 @@
     <row r="1" spans="1:6" ht="19">
       <c r="A1" s="4" t="str">
         <f>"Calc-Units for Method M ("&amp;'CC-Net capex'!B5&amp;") for "&amp;Inputs!B6&amp;" in "&amp;Inputs!C6&amp;"  Status: "&amp;Inputs!D6&amp;""</f>
-        <v>Calc-Units for Method M (No option selected) for #VALUE! in #VALUE!  Status: #VALUE!</v>
+        <v>Calc-Units for Method M (No option selected) for no company in no year  Status: no data version</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -16914,7 +16937,7 @@
     <row r="1" spans="1:16" ht="19">
       <c r="A1" s="4" t="str">
         <f>"CC-Net capex for Method M ("&amp;B5&amp;") for "&amp;Inputs!B6&amp;" in "&amp;Inputs!C6&amp;"  Status: "&amp;Inputs!D6&amp;""</f>
-        <v>CC-Net capex for Method M (No option selected) for #VALUE! in #VALUE!  Status: #VALUE!</v>
+        <v>CC-Net capex for Method M (No option selected) for no company in no year  Status: no data version</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="26.25" customHeight="1">
@@ -16924,21 +16947,21 @@
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
       <c r="D3" s="37"/>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="67" t="s">
         <v>840</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="63"/>
-      <c r="J3" s="61" t="s">
+      <c r="G3" s="68"/>
+      <c r="H3" s="72"/>
+      <c r="J3" s="67" t="s">
         <v>541</v>
       </c>
-      <c r="K3" s="62"/>
-      <c r="L3" s="63"/>
-      <c r="N3" s="64" t="s">
+      <c r="K3" s="68"/>
+      <c r="L3" s="72"/>
+      <c r="N3" s="74" t="s">
         <v>542</v>
       </c>
-      <c r="O3" s="65"/>
-      <c r="P3" s="66"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="76"/>
     </row>
     <row r="4" spans="1:16" ht="12.75" customHeight="1">
       <c r="A4" s="26"/>
@@ -16952,16 +16975,16 @@
       <c r="F4" s="26"/>
       <c r="G4" s="24"/>
       <c r="H4" s="25"/>
-      <c r="J4" s="67" t="s">
+      <c r="J4" s="77" t="s">
         <v>543</v>
       </c>
-      <c r="K4" s="68"/>
-      <c r="L4" s="69"/>
-      <c r="N4" s="67" t="s">
+      <c r="K4" s="78"/>
+      <c r="L4" s="79"/>
+      <c r="N4" s="77" t="s">
         <v>544</v>
       </c>
-      <c r="O4" s="68"/>
-      <c r="P4" s="69"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="79"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="27"/>
@@ -17117,37 +17140,37 @@
     <row r="15" spans="1:16" ht="5.25" customHeight="1"/>
     <row r="16" spans="1:16" ht="26.25" customHeight="1">
       <c r="A16" s="33"/>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="67" t="s">
         <v>844</v>
       </c>
-      <c r="C16" s="63"/>
+      <c r="C16" s="72"/>
       <c r="D16" s="33"/>
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="67" t="s">
         <v>845</v>
       </c>
-      <c r="F16" s="63"/>
+      <c r="F16" s="72"/>
       <c r="G16" s="33"/>
-      <c r="H16" s="61" t="s">
+      <c r="H16" s="67" t="s">
         <v>846</v>
       </c>
-      <c r="I16" s="63"/>
+      <c r="I16" s="72"/>
     </row>
     <row r="17" spans="1:9" ht="46" customHeight="1">
       <c r="A17" s="33"/>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="63" t="s">
         <v>847</v>
       </c>
-      <c r="C17" s="71"/>
+      <c r="C17" s="73"/>
       <c r="D17" s="33"/>
-      <c r="E17" s="70" t="s">
+      <c r="E17" s="63" t="s">
         <v>848</v>
       </c>
-      <c r="F17" s="71"/>
+      <c r="F17" s="73"/>
       <c r="G17" s="33"/>
-      <c r="H17" s="70" t="s">
+      <c r="H17" s="63" t="s">
         <v>849</v>
       </c>
-      <c r="I17" s="71"/>
+      <c r="I17" s="73"/>
     </row>
     <row r="18" spans="1:9" ht="12.75" customHeight="1">
       <c r="B18" s="26"/>
@@ -17250,24 +17273,24 @@
       </c>
     </row>
     <row r="25" spans="1:9" s="33" customFormat="1" ht="37" customHeight="1">
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="67" t="s">
         <v>850</v>
       </c>
-      <c r="C25" s="63"/>
-      <c r="E25" s="72" t="s">
+      <c r="C25" s="72"/>
+      <c r="E25" s="69" t="s">
         <v>851</v>
       </c>
-      <c r="F25" s="73"/>
+      <c r="F25" s="70"/>
     </row>
     <row r="26" spans="1:9" s="33" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="63" t="s">
         <v>852</v>
       </c>
-      <c r="C26" s="71"/>
-      <c r="E26" s="74" t="s">
+      <c r="C26" s="73"/>
+      <c r="E26" s="65" t="s">
         <v>853</v>
       </c>
-      <c r="F26" s="75"/>
+      <c r="F26" s="66"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="26"/>
@@ -17346,37 +17369,37 @@
     </row>
     <row r="35" spans="1:10" ht="5.25" customHeight="1"/>
     <row r="36" spans="1:10" s="33" customFormat="1" ht="51" customHeight="1">
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="67" t="s">
         <v>844</v>
       </c>
-      <c r="C36" s="62"/>
+      <c r="C36" s="68"/>
       <c r="D36" s="38"/>
-      <c r="E36" s="61" t="s">
+      <c r="E36" s="67" t="s">
         <v>845</v>
       </c>
-      <c r="F36" s="62"/>
+      <c r="F36" s="68"/>
       <c r="G36" s="38"/>
-      <c r="H36" s="61" t="s">
+      <c r="H36" s="67" t="s">
         <v>846</v>
       </c>
-      <c r="I36" s="62"/>
+      <c r="I36" s="68"/>
       <c r="J36" s="38"/>
     </row>
     <row r="37" spans="1:10" s="33" customFormat="1" ht="51" customHeight="1">
-      <c r="B37" s="70" t="s">
+      <c r="B37" s="63" t="s">
         <v>847</v>
       </c>
-      <c r="C37" s="76"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="39"/>
-      <c r="E37" s="70" t="s">
+      <c r="E37" s="63" t="s">
         <v>848</v>
       </c>
-      <c r="F37" s="76"/>
+      <c r="F37" s="64"/>
       <c r="G37" s="39"/>
-      <c r="H37" s="70" t="s">
+      <c r="H37" s="63" t="s">
         <v>849</v>
       </c>
-      <c r="I37" s="76"/>
+      <c r="I37" s="64"/>
       <c r="J37" s="39"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1">
@@ -17527,35 +17550,35 @@
       <c r="J43" s="29"/>
     </row>
     <row r="46" spans="1:10" s="33" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="67" t="s">
         <v>850</v>
       </c>
-      <c r="C46" s="62"/>
+      <c r="C46" s="68"/>
       <c r="D46" s="38"/>
-      <c r="E46" s="72" t="s">
+      <c r="E46" s="69" t="s">
         <v>851</v>
       </c>
-      <c r="F46" s="73"/>
-      <c r="H46" s="72" t="s">
+      <c r="F46" s="70"/>
+      <c r="H46" s="69" t="s">
         <v>851</v>
       </c>
-      <c r="I46" s="77"/>
+      <c r="I46" s="71"/>
       <c r="J46" s="38"/>
     </row>
     <row r="47" spans="1:10" s="33" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B47" s="70" t="s">
+      <c r="B47" s="63" t="s">
         <v>852</v>
       </c>
-      <c r="C47" s="76"/>
+      <c r="C47" s="64"/>
       <c r="D47" s="39"/>
-      <c r="E47" s="74" t="s">
+      <c r="E47" s="65" t="s">
         <v>853</v>
       </c>
-      <c r="F47" s="75"/>
-      <c r="H47" s="70" t="s">
+      <c r="F47" s="66"/>
+      <c r="H47" s="63" t="s">
         <v>856</v>
       </c>
-      <c r="I47" s="76"/>
+      <c r="I47" s="64"/>
       <c r="J47" s="39"/>
     </row>
     <row r="48" spans="1:10">
@@ -17965,6 +17988,23 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="27">
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="E36:F36"/>
     <mergeCell ref="H47:I47"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="E47:F47"/>
@@ -17975,23 +18015,6 @@
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="H46:I46"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18027,7 +18050,7 @@
     <row r="1" spans="1:16" ht="19">
       <c r="A1" s="4" t="str">
         <f>"CE-Net capex for Method M ("&amp;B5&amp;") for "&amp;Inputs!B6&amp;" in "&amp;Inputs!C6&amp;"  Status: "&amp;Inputs!D6&amp;""</f>
-        <v>CE-Net capex for Method M (No option selected) for #VALUE! in #VALUE!  Status: #VALUE!</v>
+        <v>CE-Net capex for Method M (No option selected) for no company in no year  Status: no data version</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="26.25" customHeight="1">
@@ -18037,21 +18060,21 @@
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
       <c r="D3" s="37"/>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="67" t="s">
         <v>840</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="63"/>
-      <c r="J3" s="61" t="s">
+      <c r="G3" s="68"/>
+      <c r="H3" s="72"/>
+      <c r="J3" s="67" t="s">
         <v>541</v>
       </c>
-      <c r="K3" s="62"/>
-      <c r="L3" s="63"/>
-      <c r="N3" s="64" t="s">
+      <c r="K3" s="68"/>
+      <c r="L3" s="72"/>
+      <c r="N3" s="74" t="s">
         <v>542</v>
       </c>
-      <c r="O3" s="65"/>
-      <c r="P3" s="66"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="76"/>
     </row>
     <row r="4" spans="1:16" ht="12.75" customHeight="1">
       <c r="A4" s="26"/>
@@ -18065,16 +18088,16 @@
       <c r="F4" s="26"/>
       <c r="G4" s="24"/>
       <c r="H4" s="25"/>
-      <c r="J4" s="67" t="s">
+      <c r="J4" s="77" t="s">
         <v>543</v>
       </c>
-      <c r="K4" s="68"/>
-      <c r="L4" s="69"/>
-      <c r="N4" s="67" t="s">
+      <c r="K4" s="78"/>
+      <c r="L4" s="79"/>
+      <c r="N4" s="77" t="s">
         <v>544</v>
       </c>
-      <c r="O4" s="68"/>
-      <c r="P4" s="69"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="79"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="27"/>
@@ -18230,37 +18253,37 @@
     <row r="15" spans="1:16" ht="5.25" customHeight="1"/>
     <row r="16" spans="1:16" ht="26.25" customHeight="1">
       <c r="A16" s="33"/>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="67" t="s">
         <v>844</v>
       </c>
-      <c r="C16" s="63"/>
+      <c r="C16" s="72"/>
       <c r="D16" s="33"/>
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="67" t="s">
         <v>845</v>
       </c>
-      <c r="F16" s="63"/>
+      <c r="F16" s="72"/>
       <c r="G16" s="33"/>
-      <c r="H16" s="61" t="s">
+      <c r="H16" s="67" t="s">
         <v>846</v>
       </c>
-      <c r="I16" s="63"/>
+      <c r="I16" s="72"/>
     </row>
     <row r="17" spans="1:9" ht="46" customHeight="1">
       <c r="A17" s="33"/>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="63" t="s">
         <v>847</v>
       </c>
-      <c r="C17" s="71"/>
+      <c r="C17" s="73"/>
       <c r="D17" s="33"/>
-      <c r="E17" s="70" t="s">
+      <c r="E17" s="63" t="s">
         <v>848</v>
       </c>
-      <c r="F17" s="71"/>
+      <c r="F17" s="73"/>
       <c r="G17" s="33"/>
-      <c r="H17" s="70" t="s">
+      <c r="H17" s="63" t="s">
         <v>849</v>
       </c>
-      <c r="I17" s="71"/>
+      <c r="I17" s="73"/>
     </row>
     <row r="18" spans="1:9" ht="12.75" customHeight="1">
       <c r="B18" s="26"/>
@@ -18363,24 +18386,24 @@
       </c>
     </row>
     <row r="25" spans="1:9" s="33" customFormat="1" ht="37" customHeight="1">
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="67" t="s">
         <v>850</v>
       </c>
-      <c r="C25" s="63"/>
-      <c r="E25" s="72" t="s">
+      <c r="C25" s="72"/>
+      <c r="E25" s="69" t="s">
         <v>851</v>
       </c>
-      <c r="F25" s="73"/>
+      <c r="F25" s="70"/>
     </row>
     <row r="26" spans="1:9" s="33" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="63" t="s">
         <v>852</v>
       </c>
-      <c r="C26" s="71"/>
-      <c r="E26" s="74" t="s">
+      <c r="C26" s="73"/>
+      <c r="E26" s="65" t="s">
         <v>853</v>
       </c>
-      <c r="F26" s="75"/>
+      <c r="F26" s="66"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="26"/>
@@ -18459,37 +18482,37 @@
     </row>
     <row r="35" spans="1:10" ht="5.25" customHeight="1"/>
     <row r="36" spans="1:10" s="33" customFormat="1" ht="51" customHeight="1">
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="67" t="s">
         <v>844</v>
       </c>
-      <c r="C36" s="62"/>
+      <c r="C36" s="68"/>
       <c r="D36" s="38"/>
-      <c r="E36" s="61" t="s">
+      <c r="E36" s="67" t="s">
         <v>845</v>
       </c>
-      <c r="F36" s="62"/>
+      <c r="F36" s="68"/>
       <c r="G36" s="38"/>
-      <c r="H36" s="61" t="s">
+      <c r="H36" s="67" t="s">
         <v>846</v>
       </c>
-      <c r="I36" s="62"/>
+      <c r="I36" s="68"/>
       <c r="J36" s="38"/>
     </row>
     <row r="37" spans="1:10" s="33" customFormat="1" ht="51" customHeight="1">
-      <c r="B37" s="70" t="s">
+      <c r="B37" s="63" t="s">
         <v>847</v>
       </c>
-      <c r="C37" s="76"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="39"/>
-      <c r="E37" s="70" t="s">
+      <c r="E37" s="63" t="s">
         <v>848</v>
       </c>
-      <c r="F37" s="76"/>
+      <c r="F37" s="64"/>
       <c r="G37" s="39"/>
-      <c r="H37" s="70" t="s">
+      <c r="H37" s="63" t="s">
         <v>849</v>
       </c>
-      <c r="I37" s="76"/>
+      <c r="I37" s="64"/>
       <c r="J37" s="39"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1">
@@ -18640,35 +18663,35 @@
       <c r="J43" s="29"/>
     </row>
     <row r="46" spans="1:10" s="33" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="67" t="s">
         <v>850</v>
       </c>
-      <c r="C46" s="62"/>
+      <c r="C46" s="68"/>
       <c r="D46" s="38"/>
-      <c r="E46" s="72" t="s">
+      <c r="E46" s="69" t="s">
         <v>851</v>
       </c>
-      <c r="F46" s="73"/>
-      <c r="H46" s="72" t="s">
+      <c r="F46" s="70"/>
+      <c r="H46" s="69" t="s">
         <v>851</v>
       </c>
-      <c r="I46" s="77"/>
+      <c r="I46" s="71"/>
       <c r="J46" s="38"/>
     </row>
     <row r="47" spans="1:10" s="33" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B47" s="70" t="s">
+      <c r="B47" s="63" t="s">
         <v>852</v>
       </c>
-      <c r="C47" s="76"/>
+      <c r="C47" s="64"/>
       <c r="D47" s="39"/>
-      <c r="E47" s="74" t="s">
+      <c r="E47" s="65" t="s">
         <v>853</v>
       </c>
-      <c r="F47" s="75"/>
-      <c r="H47" s="70" t="s">
+      <c r="F47" s="66"/>
+      <c r="H47" s="63" t="s">
         <v>856</v>
       </c>
-      <c r="I47" s="76"/>
+      <c r="I47" s="64"/>
       <c r="J47" s="39"/>
     </row>
     <row r="48" spans="1:10">
@@ -19078,23 +19101,9 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="27">
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="H47:I47"/>
     <mergeCell ref="H36:I36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="E37:F37"/>
@@ -19102,9 +19111,23 @@
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="H46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="48" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -19139,7 +19162,7 @@
     <row r="1" spans="1:53" ht="19">
       <c r="A1" s="4" t="str">
         <f>"CC-Opex for Method M ("&amp;'CC-Net capex'!B5&amp;") for "&amp;Inputs!B6&amp;" in "&amp;Inputs!C6&amp;"  Status: "&amp;Inputs!D6&amp;""</f>
-        <v>CC-Opex for Method M (No option selected) for #VALUE! in #VALUE!  Status: #VALUE!</v>
+        <v>CC-Opex for Method M (No option selected) for no company in no year  Status: no data version</v>
       </c>
     </row>
     <row r="3" spans="1:53" ht="58.5" customHeight="1">
@@ -24748,7 +24771,7 @@
     <row r="1" spans="1:53" ht="19">
       <c r="A1" s="4" t="str">
         <f>"CE-Opex for Method M ("&amp;'CE-Net capex'!B5&amp;") for "&amp;Inputs!B6&amp;" in "&amp;Inputs!C6&amp;"  Status: "&amp;Inputs!D6&amp;""</f>
-        <v>CE-Opex for Method M (No option selected) for #VALUE! in #VALUE!  Status: #VALUE!</v>
+        <v>CE-Opex for Method M (No option selected) for no company in no year  Status: no data version</v>
       </c>
     </row>
     <row r="3" spans="1:53" ht="58.5" customHeight="1">
@@ -24951,7 +24974,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2">
-        <f>D7-E7-F7-G7-H7</f>
+        <f t="shared" ref="I7:I40" si="0">D7-E7-F7-G7-H7</f>
         <v>0</v>
       </c>
       <c r="K7" s="2" t="s">
@@ -24978,43 +25001,43 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S7" s="2" t="str">
-        <f>IF(ISERROR($I7*L7)," ",$I7*L7)</f>
+        <f t="shared" ref="S7:S39" si="1">IF(ISERROR($I7*L7)," ",$I7*L7)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T7" s="2" t="str">
-        <f>IF(ISERROR($I7*M7)," ",$I7*M7)</f>
+        <f t="shared" ref="T7:T39" si="2">IF(ISERROR($I7*M7)," ",$I7*M7)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U7" s="2" t="str">
-        <f>IF(ISERROR($I7*N7)," ",$I7*N7)</f>
+        <f t="shared" ref="U7:U39" si="3">IF(ISERROR($I7*N7)," ",$I7*N7)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V7" s="2" t="str">
-        <f>IF(ISERROR($I7*O7)," ",$I7*O7)</f>
+        <f t="shared" ref="V7:V39" si="4">IF(ISERROR($I7*O7)," ",$I7*O7)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W7" s="2" t="str">
-        <f>IF(ISERROR($I7*P7)," ",$I7*P7)</f>
+        <f t="shared" ref="W7:W39" si="5">IF(ISERROR($I7*P7)," ",$I7*P7)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z7" s="2" t="e">
-        <f>IF($K7="Do not allocate"," ",S7+E7)</f>
+        <f t="shared" ref="Z7:Z39" si="6">IF($K7="Do not allocate"," ",S7+E7)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AA7" s="2" t="e">
-        <f>IF($K7="Do not allocate"," ",T7+F7)</f>
+        <f t="shared" ref="AA7:AA39" si="7">IF($K7="Do not allocate"," ",T7+F7)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AB7" s="2" t="e">
-        <f>IF($K7="Do not allocate"," ",U7+G7)</f>
+        <f t="shared" ref="AB7:AB39" si="8">IF($K7="Do not allocate"," ",U7+G7)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AC7" s="2" t="e">
-        <f>IF($K7="Do not allocate"," ",($H7*O7/($O7+$P7)+V7))</f>
+        <f t="shared" ref="AC7:AC39" si="9">IF($K7="Do not allocate"," ",($H7*O7/($O7+$P7)+V7))</f>
         <v>#VALUE!</v>
       </c>
       <c r="AD7" s="2" t="e">
-        <f>IF($K7="Do not allocate"," ",($H7*P7/($O7+$P7)+W7))</f>
+        <f t="shared" ref="AD7:AD39" si="10">IF($K7="Do not allocate"," ",($H7*P7/($O7+$P7)+W7))</f>
         <v>#VALUE!</v>
       </c>
       <c r="AG7" s="2" t="str">
@@ -25037,31 +25060,31 @@
         <v>1</v>
       </c>
       <c r="AM7" s="2">
-        <f>AL7*D7</f>
+        <f t="shared" ref="AM7:AM39" si="11">AL7*D7</f>
         <v>0</v>
       </c>
       <c r="AN7" s="2">
-        <f>D7*(1-AL7)</f>
+        <f t="shared" ref="AN7:AN39" si="12">D7*(1-AL7)</f>
         <v>0</v>
       </c>
       <c r="AQ7" s="2" t="str">
-        <f>IF(ISERROR(Z7*(1-$AL7))," ",Z7*(1-$AL7))</f>
+        <f t="shared" ref="AQ7:AQ39" si="13">IF(ISERROR(Z7*(1-$AL7))," ",Z7*(1-$AL7))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AR7" s="2" t="str">
-        <f>IF(ISERROR(AA7*(1-$AL7))," ",AA7*(1-$AL7))</f>
+        <f t="shared" ref="AR7:AR39" si="14">IF(ISERROR(AA7*(1-$AL7))," ",AA7*(1-$AL7))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AS7" s="2" t="str">
-        <f>IF(ISERROR(AB7*(1-$AL7))," ",AB7*(1-$AL7))</f>
+        <f t="shared" ref="AS7:AS39" si="15">IF(ISERROR(AB7*(1-$AL7))," ",AB7*(1-$AL7))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AT7" s="2" t="str">
-        <f>IF(ISERROR(AC7*(1-$AL7))," ",AC7*(1-$AL7))</f>
+        <f t="shared" ref="AT7:AT39" si="16">IF(ISERROR(AC7*(1-$AL7))," ",AC7*(1-$AL7))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AU7" s="2" t="str">
-        <f>IF(ISERROR(AD7*(1-$AL7))," ",AD7*(1-$AL7))</f>
+        <f t="shared" ref="AU7:AU39" si="17">IF(ISERROR(AD7*(1-$AL7))," ",AD7*(1-$AL7))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AX7" s="2" t="str">
@@ -25106,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="2">
-        <f>D8-E8-F8-G8-H8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K8" s="2" t="s">
@@ -25133,43 +25156,43 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S8" s="2" t="str">
-        <f>IF(ISERROR($I8*L8)," ",$I8*L8)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T8" s="2" t="str">
-        <f>IF(ISERROR($I8*M8)," ",$I8*M8)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U8" s="2" t="str">
-        <f>IF(ISERROR($I8*N8)," ",$I8*N8)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V8" s="2" t="str">
-        <f>IF(ISERROR($I8*O8)," ",$I8*O8)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W8" s="2" t="str">
-        <f>IF(ISERROR($I8*P8)," ",$I8*P8)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z8" s="2" t="e">
-        <f>IF($K8="Do not allocate"," ",S8+E8)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA8" s="2" t="e">
-        <f>IF($K8="Do not allocate"," ",T8+F8)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="AB8" s="2" t="e">
-        <f>IF($K8="Do not allocate"," ",U8+G8)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC8" s="2" t="e">
-        <f>IF($K8="Do not allocate"," ",($H8*O8/($O8+$P8)+V8))</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="AD8" s="2" t="e">
-        <f>IF($K8="Do not allocate"," ",($H8*P8/($O8+$P8)+W8))</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG8" s="2" t="str">
@@ -25192,31 +25215,31 @@
         <v>1</v>
       </c>
       <c r="AM8" s="2">
-        <f>AL8*D8</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN8" s="2">
-        <f>D8*(1-AL8)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ8" s="2" t="str">
-        <f>IF(ISERROR(Z8*(1-$AL8))," ",Z8*(1-$AL8))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AR8" s="2" t="str">
-        <f>IF(ISERROR(AA8*(1-$AL8))," ",AA8*(1-$AL8))</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AS8" s="2" t="str">
-        <f>IF(ISERROR(AB8*(1-$AL8))," ",AB8*(1-$AL8))</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AT8" s="2" t="str">
-        <f>IF(ISERROR(AC8*(1-$AL8))," ",AC8*(1-$AL8))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AU8" s="2" t="str">
-        <f>IF(ISERROR(AD8*(1-$AL8))," ",AD8*(1-$AL8))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AX8" s="2" t="str">
@@ -25257,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <f>D9-E9-F9-G9-H9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -25284,43 +25307,43 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S9" s="2" t="str">
-        <f>IF(ISERROR($I9*L9)," ",$I9*L9)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T9" s="2" t="str">
-        <f>IF(ISERROR($I9*M9)," ",$I9*M9)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U9" s="2" t="str">
-        <f>IF(ISERROR($I9*N9)," ",$I9*N9)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V9" s="2" t="str">
-        <f>IF(ISERROR($I9*O9)," ",$I9*O9)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W9" s="2" t="str">
-        <f>IF(ISERROR($I9*P9)," ",$I9*P9)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z9" s="2" t="e">
-        <f>IF($K9="Do not allocate"," ",S9+E9)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA9" s="2" t="e">
-        <f>IF($K9="Do not allocate"," ",T9+F9)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="AB9" s="2" t="e">
-        <f>IF($K9="Do not allocate"," ",U9+G9)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC9" s="2" t="e">
-        <f>IF($K9="Do not allocate"," ",($H9*O9/($O9+$P9)+V9))</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="AD9" s="2" t="e">
-        <f>IF($K9="Do not allocate"," ",($H9*P9/($O9+$P9)+W9))</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG9" s="2" t="str">
@@ -25343,31 +25366,31 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="AM9" s="2">
-        <f>AL9*D9</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN9" s="2">
-        <f>D9*(1-AL9)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ9" s="2" t="str">
-        <f>IF(ISERROR(Z9*(1-$AL9))," ",Z9*(1-$AL9))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AR9" s="2" t="str">
-        <f>IF(ISERROR(AA9*(1-$AL9))," ",AA9*(1-$AL9))</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AS9" s="2" t="str">
-        <f>IF(ISERROR(AB9*(1-$AL9))," ",AB9*(1-$AL9))</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AT9" s="2" t="str">
-        <f>IF(ISERROR(AC9*(1-$AL9))," ",AC9*(1-$AL9))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AU9" s="2" t="str">
-        <f>IF(ISERROR(AD9*(1-$AL9))," ",AD9*(1-$AL9))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AX9" s="2" t="str">
@@ -25412,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="2">
-        <f>D10-E10-F10-G10-H10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K10" s="2" t="s">
@@ -25439,43 +25462,43 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S10" s="2" t="str">
-        <f>IF(ISERROR($I10*L10)," ",$I10*L10)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T10" s="2" t="str">
-        <f>IF(ISERROR($I10*M10)," ",$I10*M10)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U10" s="2" t="str">
-        <f>IF(ISERROR($I10*N10)," ",$I10*N10)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V10" s="2" t="str">
-        <f>IF(ISERROR($I10*O10)," ",$I10*O10)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W10" s="2" t="str">
-        <f>IF(ISERROR($I10*P10)," ",$I10*P10)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z10" s="2" t="e">
-        <f>IF($K10="Do not allocate"," ",S10+E10)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA10" s="2" t="e">
-        <f>IF($K10="Do not allocate"," ",T10+F10)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="AB10" s="2" t="e">
-        <f>IF($K10="Do not allocate"," ",U10+G10)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC10" s="2" t="e">
-        <f>IF($K10="Do not allocate"," ",($H10*O10/($O10+$P10)+V10))</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="AD10" s="2" t="e">
-        <f>IF($K10="Do not allocate"," ",($H10*P10/($O10+$P10)+W10))</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG10" s="2" t="str">
@@ -25498,31 +25521,31 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="AM10" s="2">
-        <f>AL10*D10</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN10" s="2">
-        <f>D10*(1-AL10)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ10" s="2" t="str">
-        <f>IF(ISERROR(Z10*(1-$AL10))," ",Z10*(1-$AL10))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AR10" s="2" t="str">
-        <f>IF(ISERROR(AA10*(1-$AL10))," ",AA10*(1-$AL10))</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AS10" s="2" t="str">
-        <f>IF(ISERROR(AB10*(1-$AL10))," ",AB10*(1-$AL10))</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AT10" s="2" t="str">
-        <f>IF(ISERROR(AC10*(1-$AL10))," ",AC10*(1-$AL10))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AU10" s="2" t="str">
-        <f>IF(ISERROR(AD10*(1-$AL10))," ",AD10*(1-$AL10))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AX10" s="2" t="str">
@@ -25567,7 +25590,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="2">
-        <f>D11-E11-F11-G11-H11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K11" s="2" t="s">
@@ -25594,43 +25617,43 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S11" s="2" t="str">
-        <f>IF(ISERROR($I11*L11)," ",$I11*L11)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T11" s="2" t="str">
-        <f>IF(ISERROR($I11*M11)," ",$I11*M11)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U11" s="2" t="str">
-        <f>IF(ISERROR($I11*N11)," ",$I11*N11)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V11" s="2" t="str">
-        <f>IF(ISERROR($I11*O11)," ",$I11*O11)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W11" s="2" t="str">
-        <f>IF(ISERROR($I11*P11)," ",$I11*P11)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z11" s="2" t="e">
-        <f>IF($K11="Do not allocate"," ",S11+E11)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA11" s="2" t="e">
-        <f>IF($K11="Do not allocate"," ",T11+F11)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="AB11" s="2" t="e">
-        <f>IF($K11="Do not allocate"," ",U11+G11)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC11" s="2" t="e">
-        <f>IF($K11="Do not allocate"," ",($H11*O11/($O11+$P11)+V11))</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="AD11" s="2" t="e">
-        <f>IF($K11="Do not allocate"," ",($H11*P11/($O11+$P11)+W11))</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG11" s="2" t="str">
@@ -25653,31 +25676,31 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="AM11" s="2">
-        <f>AL11*D11</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN11" s="2">
-        <f>D11*(1-AL11)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ11" s="2" t="str">
-        <f>IF(ISERROR(Z11*(1-$AL11))," ",Z11*(1-$AL11))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AR11" s="2" t="str">
-        <f>IF(ISERROR(AA11*(1-$AL11))," ",AA11*(1-$AL11))</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AS11" s="2" t="str">
-        <f>IF(ISERROR(AB11*(1-$AL11))," ",AB11*(1-$AL11))</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AT11" s="2" t="str">
-        <f>IF(ISERROR(AC11*(1-$AL11))," ",AC11*(1-$AL11))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AU11" s="2" t="str">
-        <f>IF(ISERROR(AD11*(1-$AL11))," ",AD11*(1-$AL11))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AX11" s="2" t="str">
@@ -25721,7 +25744,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="2">
-        <f>D12-E12-F12-G12-H12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K12" s="2" t="s">
@@ -25748,43 +25771,43 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S12" s="2" t="str">
-        <f>IF(ISERROR($I12*L12)," ",$I12*L12)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T12" s="2" t="str">
-        <f>IF(ISERROR($I12*M12)," ",$I12*M12)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U12" s="2" t="str">
-        <f>IF(ISERROR($I12*N12)," ",$I12*N12)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V12" s="2" t="str">
-        <f>IF(ISERROR($I12*O12)," ",$I12*O12)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W12" s="2" t="str">
-        <f>IF(ISERROR($I12*P12)," ",$I12*P12)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z12" s="2" t="e">
-        <f>IF($K12="Do not allocate"," ",S12+E12)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA12" s="2" t="e">
-        <f>IF($K12="Do not allocate"," ",T12+F12)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="AB12" s="2" t="e">
-        <f>IF($K12="Do not allocate"," ",U12+G12)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC12" s="2" t="e">
-        <f>IF($K12="Do not allocate"," ",($H12*O12/($O12+$P12)+V12))</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="AD12" s="2" t="e">
-        <f>IF($K12="Do not allocate"," ",($H12*P12/($O12+$P12)+W12))</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG12" s="2" t="str">
@@ -25807,31 +25830,31 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="AM12" s="2">
-        <f>AL12*D12</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN12" s="2">
-        <f>D12*(1-AL12)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ12" s="2" t="str">
-        <f>IF(ISERROR(Z12*(1-$AL12))," ",Z12*(1-$AL12))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AR12" s="2" t="str">
-        <f>IF(ISERROR(AA12*(1-$AL12))," ",AA12*(1-$AL12))</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AS12" s="2" t="str">
-        <f>IF(ISERROR(AB12*(1-$AL12))," ",AB12*(1-$AL12))</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AT12" s="2" t="str">
-        <f>IF(ISERROR(AC12*(1-$AL12))," ",AC12*(1-$AL12))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AU12" s="2" t="str">
-        <f>IF(ISERROR(AD12*(1-$AL12))," ",AD12*(1-$AL12))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AX12" s="2" t="str">
@@ -25875,7 +25898,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="2">
-        <f>D13-E13-F13-G13-H13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K13" s="2" t="s">
@@ -25902,43 +25925,43 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S13" s="2" t="str">
-        <f>IF(ISERROR($I13*L13)," ",$I13*L13)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T13" s="2" t="str">
-        <f>IF(ISERROR($I13*M13)," ",$I13*M13)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U13" s="2" t="str">
-        <f>IF(ISERROR($I13*N13)," ",$I13*N13)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V13" s="2" t="str">
-        <f>IF(ISERROR($I13*O13)," ",$I13*O13)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W13" s="2" t="str">
-        <f>IF(ISERROR($I13*P13)," ",$I13*P13)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z13" s="2" t="e">
-        <f>IF($K13="Do not allocate"," ",S13+E13)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA13" s="2" t="e">
-        <f>IF($K13="Do not allocate"," ",T13+F13)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="AB13" s="2" t="e">
-        <f>IF($K13="Do not allocate"," ",U13+G13)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC13" s="2" t="e">
-        <f>IF($K13="Do not allocate"," ",($H13*O13/($O13+$P13)+V13))</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="AD13" s="2" t="e">
-        <f>IF($K13="Do not allocate"," ",($H13*P13/($O13+$P13)+W13))</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG13" s="2" t="str">
@@ -25961,31 +25984,31 @@
         <v>0.52569999999999995</v>
       </c>
       <c r="AM13" s="2">
-        <f>AL13*D13</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN13" s="2">
-        <f>D13*(1-AL13)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ13" s="2" t="str">
-        <f>IF(ISERROR(Z13*(1-$AL13))," ",Z13*(1-$AL13))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AR13" s="2" t="str">
-        <f>IF(ISERROR(AA13*(1-$AL13))," ",AA13*(1-$AL13))</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AS13" s="2" t="str">
-        <f>IF(ISERROR(AB13*(1-$AL13))," ",AB13*(1-$AL13))</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AT13" s="2" t="str">
-        <f>IF(ISERROR(AC13*(1-$AL13))," ",AC13*(1-$AL13))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AU13" s="2" t="str">
-        <f>IF(ISERROR(AD13*(1-$AL13))," ",AD13*(1-$AL13))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AX13" s="2" t="str">
@@ -26026,7 +26049,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="2">
-        <f>D14-E14-F14-G14-H14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K14" s="2" t="s">
@@ -26053,43 +26076,43 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S14" s="2" t="str">
-        <f>IF(ISERROR($I14*L14)," ",$I14*L14)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T14" s="2" t="str">
-        <f>IF(ISERROR($I14*M14)," ",$I14*M14)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U14" s="2" t="str">
-        <f>IF(ISERROR($I14*N14)," ",$I14*N14)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V14" s="2" t="str">
-        <f>IF(ISERROR($I14*O14)," ",$I14*O14)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W14" s="2" t="str">
-        <f>IF(ISERROR($I14*P14)," ",$I14*P14)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z14" s="2" t="e">
-        <f>IF($K14="Do not allocate"," ",S14+E14)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA14" s="2" t="e">
-        <f>IF($K14="Do not allocate"," ",T14+F14)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="AB14" s="2" t="e">
-        <f>IF($K14="Do not allocate"," ",U14+G14)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC14" s="2" t="e">
-        <f>IF($K14="Do not allocate"," ",($H14*O14/($O14+$P14)+V14))</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="AD14" s="2" t="e">
-        <f>IF($K14="Do not allocate"," ",($H14*P14/($O14+$P14)+W14))</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG14" s="2" t="str">
@@ -26112,31 +26135,31 @@
         <v>0.52569999999999995</v>
       </c>
       <c r="AM14" s="2">
-        <f>AL14*D14</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN14" s="2">
-        <f>D14*(1-AL14)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ14" s="2" t="str">
-        <f>IF(ISERROR(Z14*(1-$AL14))," ",Z14*(1-$AL14))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AR14" s="2" t="str">
-        <f>IF(ISERROR(AA14*(1-$AL14))," ",AA14*(1-$AL14))</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AS14" s="2" t="str">
-        <f>IF(ISERROR(AB14*(1-$AL14))," ",AB14*(1-$AL14))</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AT14" s="2" t="str">
-        <f>IF(ISERROR(AC14*(1-$AL14))," ",AC14*(1-$AL14))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AU14" s="2" t="str">
-        <f>IF(ISERROR(AD14*(1-$AL14))," ",AD14*(1-$AL14))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AX14" s="2" t="str">
@@ -26177,7 +26200,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="2">
-        <f>D15-E15-F15-G15-H15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K15" s="2" t="s">
@@ -26204,43 +26227,43 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S15" s="2" t="str">
-        <f>IF(ISERROR($I15*L15)," ",$I15*L15)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T15" s="2" t="str">
-        <f>IF(ISERROR($I15*M15)," ",$I15*M15)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U15" s="2" t="str">
-        <f>IF(ISERROR($I15*N15)," ",$I15*N15)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V15" s="2" t="str">
-        <f>IF(ISERROR($I15*O15)," ",$I15*O15)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W15" s="2" t="str">
-        <f>IF(ISERROR($I15*P15)," ",$I15*P15)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z15" s="2" t="e">
-        <f>IF($K15="Do not allocate"," ",S15+E15)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA15" s="2" t="e">
-        <f>IF($K15="Do not allocate"," ",T15+F15)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="AB15" s="2" t="e">
-        <f>IF($K15="Do not allocate"," ",U15+G15)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC15" s="2" t="e">
-        <f>IF($K15="Do not allocate"," ",($H15*O15/($O15+$P15)+V15))</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="AD15" s="2" t="e">
-        <f>IF($K15="Do not allocate"," ",($H15*P15/($O15+$P15)+W15))</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG15" s="2" t="str">
@@ -26263,31 +26286,31 @@
         <v>0.52569999999999995</v>
       </c>
       <c r="AM15" s="2">
-        <f>AL15*D15</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN15" s="2">
-        <f>D15*(1-AL15)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ15" s="2" t="str">
-        <f>IF(ISERROR(Z15*(1-$AL15))," ",Z15*(1-$AL15))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AR15" s="2" t="str">
-        <f>IF(ISERROR(AA15*(1-$AL15))," ",AA15*(1-$AL15))</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AS15" s="2" t="str">
-        <f>IF(ISERROR(AB15*(1-$AL15))," ",AB15*(1-$AL15))</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AT15" s="2" t="str">
-        <f>IF(ISERROR(AC15*(1-$AL15))," ",AC15*(1-$AL15))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AU15" s="2" t="str">
-        <f>IF(ISERROR(AD15*(1-$AL15))," ",AD15*(1-$AL15))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AX15" s="2" t="str">
@@ -26328,7 +26351,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="2">
-        <f>D16-E16-F16-G16-H16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K16" s="2" t="s">
@@ -26355,43 +26378,43 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S16" s="2" t="str">
-        <f>IF(ISERROR($I16*L16)," ",$I16*L16)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T16" s="2" t="str">
-        <f>IF(ISERROR($I16*M16)," ",$I16*M16)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U16" s="2" t="str">
-        <f>IF(ISERROR($I16*N16)," ",$I16*N16)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V16" s="2" t="str">
-        <f>IF(ISERROR($I16*O16)," ",$I16*O16)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W16" s="2" t="str">
-        <f>IF(ISERROR($I16*P16)," ",$I16*P16)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z16" s="2" t="e">
-        <f>IF($K16="Do not allocate"," ",S16+E16)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA16" s="2" t="e">
-        <f>IF($K16="Do not allocate"," ",T16+F16)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="AB16" s="2" t="e">
-        <f>IF($K16="Do not allocate"," ",U16+G16)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC16" s="2" t="e">
-        <f>IF($K16="Do not allocate"," ",($H16*O16/($O16+$P16)+V16))</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="AD16" s="2" t="e">
-        <f>IF($K16="Do not allocate"," ",($H16*P16/($O16+$P16)+W16))</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG16" s="2" t="str">
@@ -26414,31 +26437,31 @@
         <v>0.52569999999999995</v>
       </c>
       <c r="AM16" s="2">
-        <f>AL16*D16</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN16" s="2">
-        <f>D16*(1-AL16)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ16" s="2" t="str">
-        <f>IF(ISERROR(Z16*(1-$AL16))," ",Z16*(1-$AL16))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AR16" s="2" t="str">
-        <f>IF(ISERROR(AA16*(1-$AL16))," ",AA16*(1-$AL16))</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AS16" s="2" t="str">
-        <f>IF(ISERROR(AB16*(1-$AL16))," ",AB16*(1-$AL16))</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AT16" s="2" t="str">
-        <f>IF(ISERROR(AC16*(1-$AL16))," ",AC16*(1-$AL16))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AU16" s="2" t="str">
-        <f>IF(ISERROR(AD16*(1-$AL16))," ",AD16*(1-$AL16))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AX16" s="2" t="str">
@@ -26479,7 +26502,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="2">
-        <f>D17-E17-F17-G17-H17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K17" s="2" t="s">
@@ -26506,43 +26529,43 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S17" s="2" t="str">
-        <f>IF(ISERROR($I17*L17)," ",$I17*L17)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T17" s="2" t="str">
-        <f>IF(ISERROR($I17*M17)," ",$I17*M17)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U17" s="2" t="str">
-        <f>IF(ISERROR($I17*N17)," ",$I17*N17)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V17" s="2" t="str">
-        <f>IF(ISERROR($I17*O17)," ",$I17*O17)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W17" s="2" t="str">
-        <f>IF(ISERROR($I17*P17)," ",$I17*P17)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z17" s="2" t="e">
-        <f>IF($K17="Do not allocate"," ",S17+E17)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA17" s="2" t="e">
-        <f>IF($K17="Do not allocate"," ",T17+F17)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="AB17" s="2" t="e">
-        <f>IF($K17="Do not allocate"," ",U17+G17)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC17" s="2" t="e">
-        <f>IF($K17="Do not allocate"," ",($H17*O17/($O17+$P17)+V17))</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="AD17" s="2" t="e">
-        <f>IF($K17="Do not allocate"," ",($H17*P17/($O17+$P17)+W17))</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG17" s="2" t="str">
@@ -26565,31 +26588,31 @@
         <v>0.52569999999999995</v>
       </c>
       <c r="AM17" s="2">
-        <f>AL17*D17</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN17" s="2">
-        <f>D17*(1-AL17)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ17" s="2" t="str">
-        <f>IF(ISERROR(Z17*(1-$AL17))," ",Z17*(1-$AL17))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AR17" s="2" t="str">
-        <f>IF(ISERROR(AA17*(1-$AL17))," ",AA17*(1-$AL17))</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AS17" s="2" t="str">
-        <f>IF(ISERROR(AB17*(1-$AL17))," ",AB17*(1-$AL17))</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AT17" s="2" t="str">
-        <f>IF(ISERROR(AC17*(1-$AL17))," ",AC17*(1-$AL17))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AU17" s="2" t="str">
-        <f>IF(ISERROR(AD17*(1-$AL17))," ",AD17*(1-$AL17))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AX17" s="2" t="str">
@@ -26630,7 +26653,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="2">
-        <f>D18-E18-F18-G18-H18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K18" s="2" t="s">
@@ -26657,43 +26680,43 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S18" s="2" t="str">
-        <f>IF(ISERROR($I18*L18)," ",$I18*L18)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T18" s="2" t="str">
-        <f>IF(ISERROR($I18*M18)," ",$I18*M18)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U18" s="2" t="str">
-        <f>IF(ISERROR($I18*N18)," ",$I18*N18)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V18" s="2" t="str">
-        <f>IF(ISERROR($I18*O18)," ",$I18*O18)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W18" s="2" t="str">
-        <f>IF(ISERROR($I18*P18)," ",$I18*P18)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z18" s="2" t="e">
-        <f>IF($K18="Do not allocate"," ",S18+E18)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA18" s="2" t="e">
-        <f>IF($K18="Do not allocate"," ",T18+F18)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="AB18" s="2" t="e">
-        <f>IF($K18="Do not allocate"," ",U18+G18)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC18" s="2" t="e">
-        <f>IF($K18="Do not allocate"," ",($H18*O18/($O18+$P18)+V18))</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="AD18" s="2" t="e">
-        <f>IF($K18="Do not allocate"," ",($H18*P18/($O18+$P18)+W18))</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG18" s="2" t="str">
@@ -26716,31 +26739,31 @@
         <v>0.52569999999999995</v>
       </c>
       <c r="AM18" s="2">
-        <f>AL18*D18</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN18" s="2">
-        <f>D18*(1-AL18)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ18" s="2" t="str">
-        <f>IF(ISERROR(Z18*(1-$AL18))," ",Z18*(1-$AL18))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AR18" s="2" t="str">
-        <f>IF(ISERROR(AA18*(1-$AL18))," ",AA18*(1-$AL18))</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AS18" s="2" t="str">
-        <f>IF(ISERROR(AB18*(1-$AL18))," ",AB18*(1-$AL18))</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AT18" s="2" t="str">
-        <f>IF(ISERROR(AC18*(1-$AL18))," ",AC18*(1-$AL18))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AU18" s="2" t="str">
-        <f>IF(ISERROR(AD18*(1-$AL18))," ",AD18*(1-$AL18))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AX18" s="2" t="str">
@@ -26781,7 +26804,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="2">
-        <f>D19-E19-F19-G19-H19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K19" s="2" t="s">
@@ -26808,43 +26831,43 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S19" s="2" t="str">
-        <f>IF(ISERROR($I19*L19)," ",$I19*L19)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T19" s="2" t="str">
-        <f>IF(ISERROR($I19*M19)," ",$I19*M19)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U19" s="2" t="str">
-        <f>IF(ISERROR($I19*N19)," ",$I19*N19)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V19" s="2" t="str">
-        <f>IF(ISERROR($I19*O19)," ",$I19*O19)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W19" s="2" t="str">
-        <f>IF(ISERROR($I19*P19)," ",$I19*P19)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z19" s="2" t="e">
-        <f>IF($K19="Do not allocate"," ",S19+E19)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA19" s="2" t="e">
-        <f>IF($K19="Do not allocate"," ",T19+F19)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="AB19" s="2" t="e">
-        <f>IF($K19="Do not allocate"," ",U19+G19)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC19" s="2" t="e">
-        <f>IF($K19="Do not allocate"," ",($H19*O19/($O19+$P19)+V19))</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="AD19" s="2" t="e">
-        <f>IF($K19="Do not allocate"," ",($H19*P19/($O19+$P19)+W19))</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG19" s="2" t="str">
@@ -26867,31 +26890,31 @@
         <v>0.52569999999999995</v>
       </c>
       <c r="AM19" s="2">
-        <f>AL19*D19</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN19" s="2">
-        <f>D19*(1-AL19)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ19" s="2" t="str">
-        <f>IF(ISERROR(Z19*(1-$AL19))," ",Z19*(1-$AL19))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AR19" s="2" t="str">
-        <f>IF(ISERROR(AA19*(1-$AL19))," ",AA19*(1-$AL19))</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AS19" s="2" t="str">
-        <f>IF(ISERROR(AB19*(1-$AL19))," ",AB19*(1-$AL19))</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AT19" s="2" t="str">
-        <f>IF(ISERROR(AC19*(1-$AL19))," ",AC19*(1-$AL19))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AU19" s="2" t="str">
-        <f>IF(ISERROR(AD19*(1-$AL19))," ",AD19*(1-$AL19))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AX19" s="2" t="str">
@@ -26932,7 +26955,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="2">
-        <f>D20-E20-F20-G20-H20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K20" s="2" t="s">
@@ -26959,43 +26982,43 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S20" s="2" t="str">
-        <f>IF(ISERROR($I20*L20)," ",$I20*L20)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T20" s="2" t="str">
-        <f>IF(ISERROR($I20*M20)," ",$I20*M20)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U20" s="2" t="str">
-        <f>IF(ISERROR($I20*N20)," ",$I20*N20)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V20" s="2" t="str">
-        <f>IF(ISERROR($I20*O20)," ",$I20*O20)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W20" s="2" t="str">
-        <f>IF(ISERROR($I20*P20)," ",$I20*P20)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z20" s="2" t="e">
-        <f>IF($K20="Do not allocate"," ",S20+E20)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA20" s="2" t="e">
-        <f>IF($K20="Do not allocate"," ",T20+F20)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="AB20" s="2" t="e">
-        <f>IF($K20="Do not allocate"," ",U20+G20)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC20" s="2" t="e">
-        <f>IF($K20="Do not allocate"," ",($H20*O20/($O20+$P20)+V20))</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="AD20" s="2" t="e">
-        <f>IF($K20="Do not allocate"," ",($H20*P20/($O20+$P20)+W20))</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG20" s="2" t="str">
@@ -27018,31 +27041,31 @@
         <v>0.52569999999999995</v>
       </c>
       <c r="AM20" s="2">
-        <f>AL20*D20</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN20" s="2">
-        <f>D20*(1-AL20)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ20" s="2" t="str">
-        <f>IF(ISERROR(Z20*(1-$AL20))," ",Z20*(1-$AL20))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AR20" s="2" t="str">
-        <f>IF(ISERROR(AA20*(1-$AL20))," ",AA20*(1-$AL20))</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AS20" s="2" t="str">
-        <f>IF(ISERROR(AB20*(1-$AL20))," ",AB20*(1-$AL20))</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AT20" s="2" t="str">
-        <f>IF(ISERROR(AC20*(1-$AL20))," ",AC20*(1-$AL20))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AU20" s="2" t="str">
-        <f>IF(ISERROR(AD20*(1-$AL20))," ",AD20*(1-$AL20))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AX20" s="2" t="str">
@@ -27083,7 +27106,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="2">
-        <f>D21-E21-F21-G21-H21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K21" s="2" t="s">
@@ -27110,43 +27133,43 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S21" s="2" t="str">
-        <f>IF(ISERROR($I21*L21)," ",$I21*L21)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T21" s="2" t="str">
-        <f>IF(ISERROR($I21*M21)," ",$I21*M21)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U21" s="2" t="str">
-        <f>IF(ISERROR($I21*N21)," ",$I21*N21)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V21" s="2" t="str">
-        <f>IF(ISERROR($I21*O21)," ",$I21*O21)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W21" s="2" t="str">
-        <f>IF(ISERROR($I21*P21)," ",$I21*P21)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z21" s="2" t="e">
-        <f>IF($K21="Do not allocate"," ",S21+E21)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA21" s="2" t="e">
-        <f>IF($K21="Do not allocate"," ",T21+F21)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="AB21" s="2" t="e">
-        <f>IF($K21="Do not allocate"," ",U21+G21)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC21" s="2" t="e">
-        <f>IF($K21="Do not allocate"," ",($H21*O21/($O21+$P21)+V21))</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="AD21" s="2" t="e">
-        <f>IF($K21="Do not allocate"," ",($H21*P21/($O21+$P21)+W21))</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG21" s="2" t="str">
@@ -27169,31 +27192,31 @@
         <v>0.52569999999999995</v>
       </c>
       <c r="AM21" s="2">
-        <f>AL21*D21</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN21" s="2">
-        <f>D21*(1-AL21)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ21" s="2" t="str">
-        <f>IF(ISERROR(Z21*(1-$AL21))," ",Z21*(1-$AL21))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AR21" s="2" t="str">
-        <f>IF(ISERROR(AA21*(1-$AL21))," ",AA21*(1-$AL21))</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AS21" s="2" t="str">
-        <f>IF(ISERROR(AB21*(1-$AL21))," ",AB21*(1-$AL21))</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AT21" s="2" t="str">
-        <f>IF(ISERROR(AC21*(1-$AL21))," ",AC21*(1-$AL21))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AU21" s="2" t="str">
-        <f>IF(ISERROR(AD21*(1-$AL21))," ",AD21*(1-$AL21))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AX21" s="2" t="str">
@@ -27234,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="2">
-        <f>D22-E22-F22-G22-H22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K22" s="2" t="s">
@@ -27261,43 +27284,43 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S22" s="2" t="str">
-        <f>IF(ISERROR($I22*L22)," ",$I22*L22)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T22" s="2" t="str">
-        <f>IF(ISERROR($I22*M22)," ",$I22*M22)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U22" s="2" t="str">
-        <f>IF(ISERROR($I22*N22)," ",$I22*N22)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V22" s="2" t="str">
-        <f>IF(ISERROR($I22*O22)," ",$I22*O22)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W22" s="2" t="str">
-        <f>IF(ISERROR($I22*P22)," ",$I22*P22)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z22" s="2" t="str">
-        <f>IF($K22="Do not allocate"," ",S22+E22)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AA22" s="2" t="str">
-        <f>IF($K22="Do not allocate"," ",T22+F22)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AB22" s="2" t="str">
-        <f>IF($K22="Do not allocate"," ",U22+G22)</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AC22" s="2" t="str">
-        <f>IF($K22="Do not allocate"," ",($H22*O22/($O22+$P22)+V22))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AD22" s="2" t="str">
-        <f>IF($K22="Do not allocate"," ",($H22*P22/($O22+$P22)+W22))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AG22" s="2" t="str">
@@ -27320,31 +27343,31 @@
         <v>0.52569999999999995</v>
       </c>
       <c r="AM22" s="2">
-        <f>AL22*D22</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN22" s="2">
-        <f>D22*(1-AL22)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ22" s="2" t="str">
-        <f>IF(ISERROR(Z22*(1-$AL22))," ",Z22*(1-$AL22))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AR22" s="2" t="str">
-        <f>IF(ISERROR(AA22*(1-$AL22))," ",AA22*(1-$AL22))</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AS22" s="2" t="str">
-        <f>IF(ISERROR(AB22*(1-$AL22))," ",AB22*(1-$AL22))</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AT22" s="2" t="str">
-        <f>IF(ISERROR(AC22*(1-$AL22))," ",AC22*(1-$AL22))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AU22" s="2" t="str">
-        <f>IF(ISERROR(AD22*(1-$AL22))," ",AD22*(1-$AL22))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AX22" s="2" t="str">
@@ -27385,7 +27408,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="2">
-        <f>D23-E23-F23-G23-H23</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K23" s="2" t="s">
@@ -27412,43 +27435,43 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S23" s="2" t="str">
-        <f>IF(ISERROR($I23*L23)," ",$I23*L23)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T23" s="2" t="str">
-        <f>IF(ISERROR($I23*M23)," ",$I23*M23)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U23" s="2" t="str">
-        <f>IF(ISERROR($I23*N23)," ",$I23*N23)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V23" s="2" t="str">
-        <f>IF(ISERROR($I23*O23)," ",$I23*O23)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W23" s="2" t="str">
-        <f>IF(ISERROR($I23*P23)," ",$I23*P23)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z23" s="2" t="str">
-        <f>IF($K23="Do not allocate"," ",S23+E23)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AA23" s="2" t="str">
-        <f>IF($K23="Do not allocate"," ",T23+F23)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AB23" s="2" t="str">
-        <f>IF($K23="Do not allocate"," ",U23+G23)</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AC23" s="2" t="str">
-        <f>IF($K23="Do not allocate"," ",($H23*O23/($O23+$P23)+V23))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AD23" s="2" t="str">
-        <f>IF($K23="Do not allocate"," ",($H23*P23/($O23+$P23)+W23))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AG23" s="2" t="str">
@@ -27471,31 +27494,31 @@
         <v>0.52569999999999995</v>
       </c>
       <c r="AM23" s="2">
-        <f>AL23*D23</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN23" s="2">
-        <f>D23*(1-AL23)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ23" s="2" t="str">
-        <f>IF(ISERROR(Z23*(1-$AL23))," ",Z23*(1-$AL23))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AR23" s="2" t="str">
-        <f>IF(ISERROR(AA23*(1-$AL23))," ",AA23*(1-$AL23))</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AS23" s="2" t="str">
-        <f>IF(ISERROR(AB23*(1-$AL23))," ",AB23*(1-$AL23))</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AT23" s="2" t="str">
-        <f>IF(ISERROR(AC23*(1-$AL23))," ",AC23*(1-$AL23))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AU23" s="2" t="str">
-        <f>IF(ISERROR(AD23*(1-$AL23))," ",AD23*(1-$AL23))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AX23" s="2" t="str">
@@ -27536,7 +27559,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="2">
-        <f>D24-E24-F24-G24-H24</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K24" s="2" t="s">
@@ -27563,43 +27586,43 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S24" s="2" t="str">
-        <f>IF(ISERROR($I24*L24)," ",$I24*L24)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T24" s="2" t="str">
-        <f>IF(ISERROR($I24*M24)," ",$I24*M24)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U24" s="2" t="str">
-        <f>IF(ISERROR($I24*N24)," ",$I24*N24)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V24" s="2" t="str">
-        <f>IF(ISERROR($I24*O24)," ",$I24*O24)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W24" s="2" t="str">
-        <f>IF(ISERROR($I24*P24)," ",$I24*P24)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z24" s="2" t="e">
-        <f>IF($K24="Do not allocate"," ",S24+E24)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA24" s="2" t="e">
-        <f>IF($K24="Do not allocate"," ",T24+F24)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="AB24" s="2" t="e">
-        <f>IF($K24="Do not allocate"," ",U24+G24)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC24" s="2" t="e">
-        <f>IF($K24="Do not allocate"," ",($H24*O24/($O24+$P24)+V24))</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="AD24" s="2" t="e">
-        <f>IF($K24="Do not allocate"," ",($H24*P24/($O24+$P24)+W24))</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG24" s="2" t="str">
@@ -27622,31 +27645,31 @@
         <v>0.52569999999999995</v>
       </c>
       <c r="AM24" s="2">
-        <f>AL24*D24</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN24" s="2">
-        <f>D24*(1-AL24)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ24" s="2" t="str">
-        <f>IF(ISERROR(Z24*(1-$AL24))," ",Z24*(1-$AL24))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AR24" s="2" t="str">
-        <f>IF(ISERROR(AA24*(1-$AL24))," ",AA24*(1-$AL24))</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AS24" s="2" t="str">
-        <f>IF(ISERROR(AB24*(1-$AL24))," ",AB24*(1-$AL24))</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AT24" s="2" t="str">
-        <f>IF(ISERROR(AC24*(1-$AL24))," ",AC24*(1-$AL24))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AU24" s="2" t="str">
-        <f>IF(ISERROR(AD24*(1-$AL24))," ",AD24*(1-$AL24))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AX24" s="2" t="str">
@@ -27687,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="2">
-        <f>D25-E25-F25-G25-H25</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K25" s="2" t="s">
@@ -27714,43 +27737,43 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S25" s="2" t="str">
-        <f>IF(ISERROR($I25*L25)," ",$I25*L25)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T25" s="2" t="str">
-        <f>IF(ISERROR($I25*M25)," ",$I25*M25)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U25" s="2" t="str">
-        <f>IF(ISERROR($I25*N25)," ",$I25*N25)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V25" s="2" t="str">
-        <f>IF(ISERROR($I25*O25)," ",$I25*O25)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W25" s="2" t="str">
-        <f>IF(ISERROR($I25*P25)," ",$I25*P25)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z25" s="2" t="e">
-        <f>IF($K25="Do not allocate"," ",S25+E25)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA25" s="2" t="e">
-        <f>IF($K25="Do not allocate"," ",T25+F25)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="AB25" s="2" t="e">
-        <f>IF($K25="Do not allocate"," ",U25+G25)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC25" s="2" t="e">
-        <f>IF($K25="Do not allocate"," ",($H25*O25/($O25+$P25)+V25))</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="AD25" s="2" t="e">
-        <f>IF($K25="Do not allocate"," ",($H25*P25/($O25+$P25)+W25))</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG25" s="2" t="str">
@@ -27773,31 +27796,31 @@
         <v>0.52569999999999995</v>
       </c>
       <c r="AM25" s="2">
-        <f>AL25*D25</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN25" s="2">
-        <f>D25*(1-AL25)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ25" s="2" t="str">
-        <f>IF(ISERROR(Z25*(1-$AL25))," ",Z25*(1-$AL25))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AR25" s="2" t="str">
-        <f>IF(ISERROR(AA25*(1-$AL25))," ",AA25*(1-$AL25))</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AS25" s="2" t="str">
-        <f>IF(ISERROR(AB25*(1-$AL25))," ",AB25*(1-$AL25))</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AT25" s="2" t="str">
-        <f>IF(ISERROR(AC25*(1-$AL25))," ",AC25*(1-$AL25))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AU25" s="2" t="str">
-        <f>IF(ISERROR(AD25*(1-$AL25))," ",AD25*(1-$AL25))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AX25" s="2" t="str">
@@ -27838,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="2">
-        <f>D26-E26-F26-G26-H26</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K26" s="2" t="s">
@@ -27865,43 +27888,43 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S26" s="2" t="str">
-        <f>IF(ISERROR($I26*L26)," ",$I26*L26)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T26" s="2" t="str">
-        <f>IF(ISERROR($I26*M26)," ",$I26*M26)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U26" s="2" t="str">
-        <f>IF(ISERROR($I26*N26)," ",$I26*N26)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V26" s="2" t="str">
-        <f>IF(ISERROR($I26*O26)," ",$I26*O26)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W26" s="2" t="str">
-        <f>IF(ISERROR($I26*P26)," ",$I26*P26)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z26" s="2" t="e">
-        <f>IF($K26="Do not allocate"," ",S26+E26)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA26" s="2" t="e">
-        <f>IF($K26="Do not allocate"," ",T26+F26)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="AB26" s="2" t="e">
-        <f>IF($K26="Do not allocate"," ",U26+G26)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC26" s="2" t="e">
-        <f>IF($K26="Do not allocate"," ",($H26*O26/($O26+$P26)+V26))</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="AD26" s="2" t="e">
-        <f>IF($K26="Do not allocate"," ",($H26*P26/($O26+$P26)+W26))</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG26" s="2" t="str">
@@ -27924,31 +27947,31 @@
         <v>0.52569999999999995</v>
       </c>
       <c r="AM26" s="2">
-        <f>AL26*D26</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN26" s="2">
-        <f>D26*(1-AL26)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ26" s="2" t="str">
-        <f>IF(ISERROR(Z26*(1-$AL26))," ",Z26*(1-$AL26))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AR26" s="2" t="str">
-        <f>IF(ISERROR(AA26*(1-$AL26))," ",AA26*(1-$AL26))</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AS26" s="2" t="str">
-        <f>IF(ISERROR(AB26*(1-$AL26))," ",AB26*(1-$AL26))</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AT26" s="2" t="str">
-        <f>IF(ISERROR(AC26*(1-$AL26))," ",AC26*(1-$AL26))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AU26" s="2" t="str">
-        <f>IF(ISERROR(AD26*(1-$AL26))," ",AD26*(1-$AL26))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AX26" s="2" t="str">
@@ -27989,7 +28012,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="2">
-        <f>D27-E27-F27-G27-H27</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K27" s="2" t="s">
@@ -28016,43 +28039,43 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S27" s="2" t="str">
-        <f>IF(ISERROR($I27*L27)," ",$I27*L27)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T27" s="2" t="str">
-        <f>IF(ISERROR($I27*M27)," ",$I27*M27)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U27" s="2" t="str">
-        <f>IF(ISERROR($I27*N27)," ",$I27*N27)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V27" s="2" t="str">
-        <f>IF(ISERROR($I27*O27)," ",$I27*O27)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W27" s="2" t="str">
-        <f>IF(ISERROR($I27*P27)," ",$I27*P27)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z27" s="2" t="e">
-        <f>IF($K27="Do not allocate"," ",S27+E27)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA27" s="2" t="e">
-        <f>IF($K27="Do not allocate"," ",T27+F27)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="AB27" s="2" t="e">
-        <f>IF($K27="Do not allocate"," ",U27+G27)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC27" s="2" t="e">
-        <f>IF($K27="Do not allocate"," ",($H27*O27/($O27+$P27)+V27))</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="AD27" s="2" t="e">
-        <f>IF($K27="Do not allocate"," ",($H27*P27/($O27+$P27)+W27))</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG27" s="2" t="str">
@@ -28075,31 +28098,31 @@
         <v>0.52569999999999995</v>
       </c>
       <c r="AM27" s="2">
-        <f>AL27*D27</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN27" s="2">
-        <f>D27*(1-AL27)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ27" s="2" t="str">
-        <f>IF(ISERROR(Z27*(1-$AL27))," ",Z27*(1-$AL27))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AR27" s="2" t="str">
-        <f>IF(ISERROR(AA27*(1-$AL27))," ",AA27*(1-$AL27))</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AS27" s="2" t="str">
-        <f>IF(ISERROR(AB27*(1-$AL27))," ",AB27*(1-$AL27))</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AT27" s="2" t="str">
-        <f>IF(ISERROR(AC27*(1-$AL27))," ",AC27*(1-$AL27))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AU27" s="2" t="str">
-        <f>IF(ISERROR(AD27*(1-$AL27))," ",AD27*(1-$AL27))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AX27" s="2" t="str">
@@ -28143,7 +28166,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="2">
-        <f>D28-E28-F28-G28-H28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K28" s="2" t="s">
@@ -28170,43 +28193,43 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S28" s="2" t="str">
-        <f>IF(ISERROR($I28*L28)," ",$I28*L28)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T28" s="2" t="str">
-        <f>IF(ISERROR($I28*M28)," ",$I28*M28)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U28" s="2" t="str">
-        <f>IF(ISERROR($I28*N28)," ",$I28*N28)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V28" s="2" t="str">
-        <f>IF(ISERROR($I28*O28)," ",$I28*O28)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W28" s="2" t="str">
-        <f>IF(ISERROR($I28*P28)," ",$I28*P28)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z28" s="2" t="str">
-        <f>IF($K28="Do not allocate"," ",S28+E28)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AA28" s="2" t="str">
-        <f>IF($K28="Do not allocate"," ",T28+F28)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AB28" s="2" t="str">
-        <f>IF($K28="Do not allocate"," ",U28+G28)</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AC28" s="2" t="str">
-        <f>IF($K28="Do not allocate"," ",($H28*O28/($O28+$P28)+V28))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AD28" s="2" t="str">
-        <f>IF($K28="Do not allocate"," ",($H28*P28/($O28+$P28)+W28))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AG28" s="2" t="str">
@@ -28229,31 +28252,31 @@
         <v>0</v>
       </c>
       <c r="AM28" s="2">
-        <f>AL28*D28</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN28" s="2">
-        <f>D28*(1-AL28)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ28" s="2" t="str">
-        <f>IF(ISERROR(Z28*(1-$AL28))," ",Z28*(1-$AL28))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AR28" s="2" t="str">
-        <f>IF(ISERROR(AA28*(1-$AL28))," ",AA28*(1-$AL28))</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AS28" s="2" t="str">
-        <f>IF(ISERROR(AB28*(1-$AL28))," ",AB28*(1-$AL28))</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AT28" s="2" t="str">
-        <f>IF(ISERROR(AC28*(1-$AL28))," ",AC28*(1-$AL28))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AU28" s="2" t="str">
-        <f>IF(ISERROR(AD28*(1-$AL28))," ",AD28*(1-$AL28))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AX28" s="2" t="str">
@@ -28294,7 +28317,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="2">
-        <f>D29-E29-F29-G29-H29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K29" s="2" t="s">
@@ -28321,43 +28344,43 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S29" s="2" t="str">
-        <f>IF(ISERROR($I29*L29)," ",$I29*L29)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T29" s="2" t="str">
-        <f>IF(ISERROR($I29*M29)," ",$I29*M29)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U29" s="2" t="str">
-        <f>IF(ISERROR($I29*N29)," ",$I29*N29)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V29" s="2" t="str">
-        <f>IF(ISERROR($I29*O29)," ",$I29*O29)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W29" s="2" t="str">
-        <f>IF(ISERROR($I29*P29)," ",$I29*P29)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z29" s="2" t="str">
-        <f>IF($K29="Do not allocate"," ",S29+E29)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AA29" s="2" t="str">
-        <f>IF($K29="Do not allocate"," ",T29+F29)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AB29" s="2" t="str">
-        <f>IF($K29="Do not allocate"," ",U29+G29)</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AC29" s="2" t="str">
-        <f>IF($K29="Do not allocate"," ",($H29*O29/($O29+$P29)+V29))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AD29" s="2" t="str">
-        <f>IF($K29="Do not allocate"," ",($H29*P29/($O29+$P29)+W29))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AG29" s="2" t="str">
@@ -28380,31 +28403,31 @@
         <v>0.57699999999999996</v>
       </c>
       <c r="AM29" s="2">
-        <f>AL29*D29</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN29" s="2">
-        <f>D29*(1-AL29)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ29" s="2" t="str">
-        <f>IF(ISERROR(Z29*(1-$AL29))," ",Z29*(1-$AL29))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AR29" s="2" t="str">
-        <f>IF(ISERROR(AA29*(1-$AL29))," ",AA29*(1-$AL29))</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AS29" s="2" t="str">
-        <f>IF(ISERROR(AB29*(1-$AL29))," ",AB29*(1-$AL29))</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AT29" s="2" t="str">
-        <f>IF(ISERROR(AC29*(1-$AL29))," ",AC29*(1-$AL29))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AU29" s="2" t="str">
-        <f>IF(ISERROR(AD29*(1-$AL29))," ",AD29*(1-$AL29))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AX29" s="2" t="str">
@@ -28445,7 +28468,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="2">
-        <f>D30-E30-F30-G30-H30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K30" s="2" t="s">
@@ -28472,43 +28495,43 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S30" s="2" t="str">
-        <f>IF(ISERROR($I30*L30)," ",$I30*L30)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T30" s="2" t="str">
-        <f>IF(ISERROR($I30*M30)," ",$I30*M30)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U30" s="2" t="str">
-        <f>IF(ISERROR($I30*N30)," ",$I30*N30)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V30" s="2" t="str">
-        <f>IF(ISERROR($I30*O30)," ",$I30*O30)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W30" s="2" t="str">
-        <f>IF(ISERROR($I30*P30)," ",$I30*P30)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z30" s="2" t="str">
-        <f>IF($K30="Do not allocate"," ",S30+E30)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AA30" s="2" t="str">
-        <f>IF($K30="Do not allocate"," ",T30+F30)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AB30" s="2" t="str">
-        <f>IF($K30="Do not allocate"," ",U30+G30)</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AC30" s="2" t="str">
-        <f>IF($K30="Do not allocate"," ",($H30*O30/($O30+$P30)+V30))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AD30" s="2" t="str">
-        <f>IF($K30="Do not allocate"," ",($H30*P30/($O30+$P30)+W30))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AG30" s="2" t="str">
@@ -28531,31 +28554,31 @@
         <v>0</v>
       </c>
       <c r="AM30" s="2">
-        <f>AL30*D30</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN30" s="2">
-        <f>D30*(1-AL30)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ30" s="2" t="str">
-        <f>IF(ISERROR(Z30*(1-$AL30))," ",Z30*(1-$AL30))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AR30" s="2" t="str">
-        <f>IF(ISERROR(AA30*(1-$AL30))," ",AA30*(1-$AL30))</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AS30" s="2" t="str">
-        <f>IF(ISERROR(AB30*(1-$AL30))," ",AB30*(1-$AL30))</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AT30" s="2" t="str">
-        <f>IF(ISERROR(AC30*(1-$AL30))," ",AC30*(1-$AL30))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AU30" s="2" t="str">
-        <f>IF(ISERROR(AD30*(1-$AL30))," ",AD30*(1-$AL30))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AX30" s="2" t="str">
@@ -28596,7 +28619,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="2">
-        <f>D31-E31-F31-G31-H31</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K31" s="2" t="s">
@@ -28623,43 +28646,43 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S31" s="2" t="str">
-        <f>IF(ISERROR($I31*L31)," ",$I31*L31)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T31" s="2" t="str">
-        <f>IF(ISERROR($I31*M31)," ",$I31*M31)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U31" s="2" t="str">
-        <f>IF(ISERROR($I31*N31)," ",$I31*N31)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V31" s="2" t="str">
-        <f>IF(ISERROR($I31*O31)," ",$I31*O31)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W31" s="2" t="str">
-        <f>IF(ISERROR($I31*P31)," ",$I31*P31)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z31" s="2" t="str">
-        <f>IF($K31="Do not allocate"," ",S31+E31)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AA31" s="2" t="str">
-        <f>IF($K31="Do not allocate"," ",T31+F31)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AB31" s="2" t="str">
-        <f>IF($K31="Do not allocate"," ",U31+G31)</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AC31" s="2" t="str">
-        <f>IF($K31="Do not allocate"," ",($H31*O31/($O31+$P31)+V31))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AD31" s="2" t="str">
-        <f>IF($K31="Do not allocate"," ",($H31*P31/($O31+$P31)+W31))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AG31" s="2" t="str">
@@ -28682,31 +28705,31 @@
         <v>0</v>
       </c>
       <c r="AM31" s="2">
-        <f>AL31*D31</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN31" s="2">
-        <f>D31*(1-AL31)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ31" s="2" t="str">
-        <f>IF(ISERROR(Z31*(1-$AL31))," ",Z31*(1-$AL31))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AR31" s="2" t="str">
-        <f>IF(ISERROR(AA31*(1-$AL31))," ",AA31*(1-$AL31))</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AS31" s="2" t="str">
-        <f>IF(ISERROR(AB31*(1-$AL31))," ",AB31*(1-$AL31))</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AT31" s="2" t="str">
-        <f>IF(ISERROR(AC31*(1-$AL31))," ",AC31*(1-$AL31))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AU31" s="2" t="str">
-        <f>IF(ISERROR(AD31*(1-$AL31))," ",AD31*(1-$AL31))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AX31" s="2" t="str">
@@ -28747,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="2">
-        <f>D32-E32-F32-G32-H32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K32" s="2" t="s">
@@ -28774,43 +28797,43 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S32" s="2" t="str">
-        <f>IF(ISERROR($I32*L32)," ",$I32*L32)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T32" s="2" t="str">
-        <f>IF(ISERROR($I32*M32)," ",$I32*M32)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U32" s="2" t="str">
-        <f>IF(ISERROR($I32*N32)," ",$I32*N32)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V32" s="2" t="str">
-        <f>IF(ISERROR($I32*O32)," ",$I32*O32)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W32" s="2" t="str">
-        <f>IF(ISERROR($I32*P32)," ",$I32*P32)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z32" s="2" t="str">
-        <f>IF($K32="Do not allocate"," ",S32+E32)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AA32" s="2" t="str">
-        <f>IF($K32="Do not allocate"," ",T32+F32)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AB32" s="2" t="str">
-        <f>IF($K32="Do not allocate"," ",U32+G32)</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AC32" s="2" t="str">
-        <f>IF($K32="Do not allocate"," ",($H32*O32/($O32+$P32)+V32))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AD32" s="2" t="str">
-        <f>IF($K32="Do not allocate"," ",($H32*P32/($O32+$P32)+W32))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AG32" s="2" t="str">
@@ -28833,31 +28856,31 @@
         <v>0</v>
       </c>
       <c r="AM32" s="2">
-        <f>AL32*D32</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN32" s="2">
-        <f>D32*(1-AL32)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ32" s="2" t="str">
-        <f>IF(ISERROR(Z32*(1-$AL32))," ",Z32*(1-$AL32))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AR32" s="2" t="str">
-        <f>IF(ISERROR(AA32*(1-$AL32))," ",AA32*(1-$AL32))</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AS32" s="2" t="str">
-        <f>IF(ISERROR(AB32*(1-$AL32))," ",AB32*(1-$AL32))</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AT32" s="2" t="str">
-        <f>IF(ISERROR(AC32*(1-$AL32))," ",AC32*(1-$AL32))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AU32" s="2" t="str">
-        <f>IF(ISERROR(AD32*(1-$AL32))," ",AD32*(1-$AL32))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AX32" s="2" t="str">
@@ -28898,7 +28921,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="2">
-        <f>D33-E33-F33-G33-H33</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K33" s="2" t="s">
@@ -28925,43 +28948,43 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S33" s="2" t="str">
-        <f>IF(ISERROR($I33*L33)," ",$I33*L33)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T33" s="2" t="str">
-        <f>IF(ISERROR($I33*M33)," ",$I33*M33)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U33" s="2" t="str">
-        <f>IF(ISERROR($I33*N33)," ",$I33*N33)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V33" s="2" t="str">
-        <f>IF(ISERROR($I33*O33)," ",$I33*O33)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W33" s="2" t="str">
-        <f>IF(ISERROR($I33*P33)," ",$I33*P33)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z33" s="2" t="str">
-        <f>IF($K33="Do not allocate"," ",S33+E33)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AA33" s="2" t="str">
-        <f>IF($K33="Do not allocate"," ",T33+F33)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AB33" s="2" t="str">
-        <f>IF($K33="Do not allocate"," ",U33+G33)</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AC33" s="2" t="str">
-        <f>IF($K33="Do not allocate"," ",($H33*O33/($O33+$P33)+V33))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AD33" s="2" t="str">
-        <f>IF($K33="Do not allocate"," ",($H33*P33/($O33+$P33)+W33))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AG33" s="2" t="str">
@@ -28984,31 +29007,31 @@
         <v>0</v>
       </c>
       <c r="AM33" s="2">
-        <f>AL33*D33</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN33" s="2">
-        <f>D33*(1-AL33)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ33" s="2" t="str">
-        <f>IF(ISERROR(Z33*(1-$AL33))," ",Z33*(1-$AL33))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AR33" s="2" t="str">
-        <f>IF(ISERROR(AA33*(1-$AL33))," ",AA33*(1-$AL33))</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AS33" s="2" t="str">
-        <f>IF(ISERROR(AB33*(1-$AL33))," ",AB33*(1-$AL33))</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AT33" s="2" t="str">
-        <f>IF(ISERROR(AC33*(1-$AL33))," ",AC33*(1-$AL33))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AU33" s="2" t="str">
-        <f>IF(ISERROR(AD33*(1-$AL33))," ",AD33*(1-$AL33))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AX33" s="2" t="str">
@@ -29049,7 +29072,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="2">
-        <f>D34-E34-F34-G34-H34</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K34" s="2" t="s">
@@ -29076,43 +29099,43 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S34" s="2" t="str">
-        <f>IF(ISERROR($I34*L34)," ",$I34*L34)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T34" s="2" t="str">
-        <f>IF(ISERROR($I34*M34)," ",$I34*M34)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U34" s="2" t="str">
-        <f>IF(ISERROR($I34*N34)," ",$I34*N34)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V34" s="2" t="str">
-        <f>IF(ISERROR($I34*O34)," ",$I34*O34)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W34" s="2" t="str">
-        <f>IF(ISERROR($I34*P34)," ",$I34*P34)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z34" s="2" t="str">
-        <f>IF($K34="Do not allocate"," ",S34+E34)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AA34" s="2" t="str">
-        <f>IF($K34="Do not allocate"," ",T34+F34)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AB34" s="2" t="str">
-        <f>IF($K34="Do not allocate"," ",U34+G34)</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AC34" s="2" t="str">
-        <f>IF($K34="Do not allocate"," ",($H34*O34/($O34+$P34)+V34))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AD34" s="2" t="str">
-        <f>IF($K34="Do not allocate"," ",($H34*P34/($O34+$P34)+W34))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AG34" s="2" t="str">
@@ -29135,31 +29158,31 @@
         <v>0</v>
       </c>
       <c r="AM34" s="2">
-        <f>AL34*D34</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN34" s="2">
-        <f>D34*(1-AL34)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ34" s="2" t="str">
-        <f>IF(ISERROR(Z34*(1-$AL34))," ",Z34*(1-$AL34))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AR34" s="2" t="str">
-        <f>IF(ISERROR(AA34*(1-$AL34))," ",AA34*(1-$AL34))</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AS34" s="2" t="str">
-        <f>IF(ISERROR(AB34*(1-$AL34))," ",AB34*(1-$AL34))</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AT34" s="2" t="str">
-        <f>IF(ISERROR(AC34*(1-$AL34))," ",AC34*(1-$AL34))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AU34" s="2" t="str">
-        <f>IF(ISERROR(AD34*(1-$AL34))," ",AD34*(1-$AL34))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AX34" s="2" t="str">
@@ -29200,7 +29223,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="2">
-        <f>D35-E35-F35-G35-H35</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K35" s="2" t="s">
@@ -29227,43 +29250,43 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S35" s="2" t="str">
-        <f>IF(ISERROR($I35*L35)," ",$I35*L35)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T35" s="2" t="str">
-        <f>IF(ISERROR($I35*M35)," ",$I35*M35)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U35" s="2" t="str">
-        <f>IF(ISERROR($I35*N35)," ",$I35*N35)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V35" s="2" t="str">
-        <f>IF(ISERROR($I35*O35)," ",$I35*O35)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W35" s="2" t="str">
-        <f>IF(ISERROR($I35*P35)," ",$I35*P35)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z35" s="2" t="str">
-        <f>IF($K35="Do not allocate"," ",S35+E35)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AA35" s="2" t="str">
-        <f>IF($K35="Do not allocate"," ",T35+F35)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AB35" s="2" t="str">
-        <f>IF($K35="Do not allocate"," ",U35+G35)</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AC35" s="2" t="str">
-        <f>IF($K35="Do not allocate"," ",($H35*O35/($O35+$P35)+V35))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AD35" s="2" t="str">
-        <f>IF($K35="Do not allocate"," ",($H35*P35/($O35+$P35)+W35))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AG35" s="2" t="str">
@@ -29286,31 +29309,31 @@
         <v>0</v>
       </c>
       <c r="AM35" s="2">
-        <f>AL35*D35</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN35" s="2">
-        <f>D35*(1-AL35)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ35" s="2" t="str">
-        <f>IF(ISERROR(Z35*(1-$AL35))," ",Z35*(1-$AL35))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AR35" s="2" t="str">
-        <f>IF(ISERROR(AA35*(1-$AL35))," ",AA35*(1-$AL35))</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AS35" s="2" t="str">
-        <f>IF(ISERROR(AB35*(1-$AL35))," ",AB35*(1-$AL35))</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AT35" s="2" t="str">
-        <f>IF(ISERROR(AC35*(1-$AL35))," ",AC35*(1-$AL35))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AU35" s="2" t="str">
-        <f>IF(ISERROR(AD35*(1-$AL35))," ",AD35*(1-$AL35))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AX35" s="2" t="str">
@@ -29351,7 +29374,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="2">
-        <f>D36-E36-F36-G36-H36</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K36" s="2" t="s">
@@ -29378,43 +29401,43 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S36" s="2" t="str">
-        <f>IF(ISERROR($I36*L36)," ",$I36*L36)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T36" s="2" t="str">
-        <f>IF(ISERROR($I36*M36)," ",$I36*M36)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U36" s="2" t="str">
-        <f>IF(ISERROR($I36*N36)," ",$I36*N36)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V36" s="2" t="str">
-        <f>IF(ISERROR($I36*O36)," ",$I36*O36)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W36" s="2" t="str">
-        <f>IF(ISERROR($I36*P36)," ",$I36*P36)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z36" s="2" t="str">
-        <f>IF($K36="Do not allocate"," ",S36+E36)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AA36" s="2" t="str">
-        <f>IF($K36="Do not allocate"," ",T36+F36)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AB36" s="2" t="str">
-        <f>IF($K36="Do not allocate"," ",U36+G36)</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AC36" s="2" t="str">
-        <f>IF($K36="Do not allocate"," ",($H36*O36/($O36+$P36)+V36))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AD36" s="2" t="str">
-        <f>IF($K36="Do not allocate"," ",($H36*P36/($O36+$P36)+W36))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AG36" s="2" t="str">
@@ -29437,31 +29460,31 @@
         <v>0</v>
       </c>
       <c r="AM36" s="2">
-        <f>AL36*D36</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN36" s="2">
-        <f>D36*(1-AL36)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ36" s="2" t="str">
-        <f>IF(ISERROR(Z36*(1-$AL36))," ",Z36*(1-$AL36))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AR36" s="2" t="str">
-        <f>IF(ISERROR(AA36*(1-$AL36))," ",AA36*(1-$AL36))</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AS36" s="2" t="str">
-        <f>IF(ISERROR(AB36*(1-$AL36))," ",AB36*(1-$AL36))</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AT36" s="2" t="str">
-        <f>IF(ISERROR(AC36*(1-$AL36))," ",AC36*(1-$AL36))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AU36" s="2" t="str">
-        <f>IF(ISERROR(AD36*(1-$AL36))," ",AD36*(1-$AL36))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AX36" s="2" t="str">
@@ -29502,7 +29525,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="2">
-        <f>D37-E37-F37-G37-H37</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K37" s="2" t="s">
@@ -29529,43 +29552,43 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S37" s="2" t="str">
-        <f>IF(ISERROR($I37*L37)," ",$I37*L37)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T37" s="2" t="str">
-        <f>IF(ISERROR($I37*M37)," ",$I37*M37)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U37" s="2" t="str">
-        <f>IF(ISERROR($I37*N37)," ",$I37*N37)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V37" s="2" t="str">
-        <f>IF(ISERROR($I37*O37)," ",$I37*O37)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W37" s="2" t="str">
-        <f>IF(ISERROR($I37*P37)," ",$I37*P37)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z37" s="2" t="str">
-        <f>IF($K37="Do not allocate"," ",S37+E37)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AA37" s="2" t="str">
-        <f>IF($K37="Do not allocate"," ",T37+F37)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AB37" s="2" t="str">
-        <f>IF($K37="Do not allocate"," ",U37+G37)</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AC37" s="2" t="str">
-        <f>IF($K37="Do not allocate"," ",($H37*O37/($O37+$P37)+V37))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AD37" s="2" t="str">
-        <f>IF($K37="Do not allocate"," ",($H37*P37/($O37+$P37)+W37))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AG37" s="2" t="str">
@@ -29588,31 +29611,31 @@
         <v>0</v>
       </c>
       <c r="AM37" s="2">
-        <f>AL37*D37</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN37" s="2">
-        <f>D37*(1-AL37)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ37" s="2" t="str">
-        <f>IF(ISERROR(Z37*(1-$AL37))," ",Z37*(1-$AL37))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AR37" s="2" t="str">
-        <f>IF(ISERROR(AA37*(1-$AL37))," ",AA37*(1-$AL37))</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AS37" s="2" t="str">
-        <f>IF(ISERROR(AB37*(1-$AL37))," ",AB37*(1-$AL37))</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AT37" s="2" t="str">
-        <f>IF(ISERROR(AC37*(1-$AL37))," ",AC37*(1-$AL37))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AU37" s="2" t="str">
-        <f>IF(ISERROR(AD37*(1-$AL37))," ",AD37*(1-$AL37))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AX37" s="2" t="str">
@@ -29653,7 +29676,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="2">
-        <f>D38-E38-F38-G38-H38</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K38" s="2" t="s">
@@ -29680,43 +29703,43 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S38" s="2" t="str">
-        <f>IF(ISERROR($I38*L38)," ",$I38*L38)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T38" s="2" t="str">
-        <f>IF(ISERROR($I38*M38)," ",$I38*M38)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U38" s="2" t="str">
-        <f>IF(ISERROR($I38*N38)," ",$I38*N38)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V38" s="2" t="str">
-        <f>IF(ISERROR($I38*O38)," ",$I38*O38)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W38" s="2" t="str">
-        <f>IF(ISERROR($I38*P38)," ",$I38*P38)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z38" s="2" t="str">
-        <f>IF($K38="Do not allocate"," ",S38+E38)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AA38" s="2" t="str">
-        <f>IF($K38="Do not allocate"," ",T38+F38)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AB38" s="2" t="str">
-        <f>IF($K38="Do not allocate"," ",U38+G38)</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AC38" s="2" t="str">
-        <f>IF($K38="Do not allocate"," ",($H38*O38/($O38+$P38)+V38))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AD38" s="2" t="str">
-        <f>IF($K38="Do not allocate"," ",($H38*P38/($O38+$P38)+W38))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AG38" s="2" t="str">
@@ -29739,31 +29762,31 @@
         <v>0</v>
       </c>
       <c r="AM38" s="2">
-        <f>AL38*D38</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN38" s="2">
-        <f>D38*(1-AL38)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ38" s="2" t="str">
-        <f>IF(ISERROR(Z38*(1-$AL38))," ",Z38*(1-$AL38))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AR38" s="2" t="str">
-        <f>IF(ISERROR(AA38*(1-$AL38))," ",AA38*(1-$AL38))</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AS38" s="2" t="str">
-        <f>IF(ISERROR(AB38*(1-$AL38))," ",AB38*(1-$AL38))</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AT38" s="2" t="str">
-        <f>IF(ISERROR(AC38*(1-$AL38))," ",AC38*(1-$AL38))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AU38" s="2" t="str">
-        <f>IF(ISERROR(AD38*(1-$AL38))," ",AD38*(1-$AL38))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AX38" s="2" t="str">
@@ -29804,7 +29827,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="2">
-        <f>D39-E39-F39-G39-H39</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K39" s="2" t="s">
@@ -29831,43 +29854,43 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S39" s="2" t="str">
-        <f>IF(ISERROR($I39*L39)," ",$I39*L39)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T39" s="2" t="str">
-        <f>IF(ISERROR($I39*M39)," ",$I39*M39)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U39" s="2" t="str">
-        <f>IF(ISERROR($I39*N39)," ",$I39*N39)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V39" s="2" t="str">
-        <f>IF(ISERROR($I39*O39)," ",$I39*O39)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W39" s="2" t="str">
-        <f>IF(ISERROR($I39*P39)," ",$I39*P39)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z39" s="2" t="str">
-        <f>IF($K39="Do not allocate"," ",S39+E39)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AA39" s="2" t="str">
-        <f>IF($K39="Do not allocate"," ",T39+F39)</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AB39" s="2" t="str">
-        <f>IF($K39="Do not allocate"," ",U39+G39)</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AC39" s="2" t="str">
-        <f>IF($K39="Do not allocate"," ",($H39*O39/($O39+$P39)+V39))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AD39" s="2" t="str">
-        <f>IF($K39="Do not allocate"," ",($H39*P39/($O39+$P39)+W39))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AG39" s="2" t="str">
@@ -29890,31 +29913,31 @@
         <v>0</v>
       </c>
       <c r="AM39" s="2">
-        <f>AL39*D39</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN39" s="2">
-        <f>D39*(1-AL39)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ39" s="2" t="str">
-        <f>IF(ISERROR(Z39*(1-$AL39))," ",Z39*(1-$AL39))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AR39" s="2" t="str">
-        <f>IF(ISERROR(AA39*(1-$AL39))," ",AA39*(1-$AL39))</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AS39" s="2" t="str">
-        <f>IF(ISERROR(AB39*(1-$AL39))," ",AB39*(1-$AL39))</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AT39" s="2" t="str">
-        <f>IF(ISERROR(AC39*(1-$AL39))," ",AC39*(1-$AL39))</f>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AU39" s="2" t="str">
-        <f>IF(ISERROR(AD39*(1-$AL39))," ",AD39*(1-$AL39))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AX39" s="2" t="str">
@@ -29959,7 +29982,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="2">
-        <f>D40-E40-F40-G40-H40</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R40" s="2" t="s">
@@ -30359,7 +30382,7 @@
     <row r="1" spans="1:9" ht="19">
       <c r="A1" s="4" t="str">
         <f>"CC-Drivers for Method M ("&amp;'CC-Net capex'!B5&amp;") for "&amp;Inputs!B6&amp;" in "&amp;Inputs!C6&amp;"  Status: "&amp;Inputs!D6&amp;""</f>
-        <v>CC-Drivers for Method M (No option selected) for #VALUE! in #VALUE!  Status: #VALUE!</v>
+        <v>CC-Drivers for Method M (No option selected) for no company in no year  Status: no data version</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1"/>
@@ -30717,7 +30740,7 @@
     <row r="1" spans="1:9" ht="19">
       <c r="A1" s="4" t="str">
         <f>"CE-Drivers for Method M ("&amp;'CE-Net capex'!B5&amp;") for "&amp;Inputs!B6&amp;" in "&amp;Inputs!C6&amp;"  Status: "&amp;Inputs!D6&amp;""</f>
-        <v>CE-Drivers for Method M (No option selected) for #VALUE! in #VALUE!  Status: #VALUE!</v>
+        <v>CE-Drivers for Method M (No option selected) for no company in no year  Status: no data version</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1"/>
@@ -31050,7 +31073,7 @@
     <row r="1" spans="1:19" ht="19">
       <c r="A1" s="4" t="str">
         <f>"CC-Allocation for Method M ("&amp;'CC-Net capex'!B5&amp;") for "&amp;Inputs!B6&amp;" in "&amp;Inputs!C6&amp;"  Status: "&amp;Inputs!D6&amp;""</f>
-        <v>CC-Allocation for Method M (No option selected) for #VALUE! in #VALUE!  Status: #VALUE!</v>
+        <v>CC-Allocation for Method M (No option selected) for no company in no year  Status: no data version</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -33167,7 +33190,7 @@
     <row r="1" spans="1:19" ht="19">
       <c r="A1" s="4" t="str">
         <f>"CE-Allocation for Method M ("&amp;'CE-Net capex'!B5&amp;") for "&amp;Inputs!B6&amp;" in "&amp;Inputs!C6&amp;"  Status: "&amp;Inputs!D6&amp;""</f>
-        <v>CE-Allocation for Method M (No option selected) for #VALUE! in #VALUE!  Status: #VALUE!</v>
+        <v>CE-Allocation for Method M (No option selected) for no company in no year  Status: no data version</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -33556,23 +33579,23 @@
         <v>72</v>
       </c>
       <c r="D19" s="2">
-        <f>O19</f>
+        <f t="shared" ref="D19:E21" si="0">O19</f>
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <f>P19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <f>Q19</f>
+        <f t="shared" ref="G19:I21" si="1">Q19</f>
         <v>0</v>
       </c>
       <c r="H19" s="2">
-        <f>R19</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I19" s="2">
-        <f>S19</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L19" s="2" t="s">
@@ -33604,23 +33627,23 @@
         <v>933</v>
       </c>
       <c r="D20" s="2">
-        <f>O20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <f>P20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G20" s="2">
-        <f>Q20</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H20" s="2">
-        <f>R20</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I20" s="2">
-        <f>S20</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L20" s="2" t="s">
@@ -33652,23 +33675,23 @@
         <v>935</v>
       </c>
       <c r="D21" s="2">
-        <f>O21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <f>P21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <f>Q21</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H21" s="2">
-        <f>R21</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I21" s="2">
-        <f>S21</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L21" s="2" t="s">
@@ -34299,15 +34322,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L47" s="2" t="e">
-        <f>$C47*G47</f>
+        <f t="shared" ref="L47:N49" si="2">$C47*G47</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M47" s="2" t="e">
-        <f>$C47*H47</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N47" s="2" t="e">
-        <f>$C47*I47</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O47" s="2" t="e">
@@ -34351,15 +34374,15 @@
         <v>#VALUE!</v>
       </c>
       <c r="L48" s="2" t="e">
-        <f>$C48*G48</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="M48" s="2" t="e">
-        <f>$C48*H48</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="N48" s="2" t="e">
-        <f>$C48*I48</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="O48" s="2" t="e">
@@ -34367,7 +34390,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:16">
       <c r="B49" s="2" t="s">
         <v>952</v>
       </c>
@@ -34403,15 +34426,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L49" s="2" t="e">
-        <f>$C49*G49</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M49" s="2" t="e">
-        <f>$C49*H49</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N49" s="2" t="e">
-        <f>$C49*I49</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O49" s="2" t="e">
@@ -34419,7 +34442,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:16">
       <c r="B51" s="2" t="s">
         <v>215</v>
       </c>
@@ -34448,7 +34471,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:16">
       <c r="K52" s="2" t="e">
         <f>K51/SUM($K$51:$O$51)</f>
         <v>#DIV/0!</v>
@@ -34470,7 +34493,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:16">
       <c r="E53" s="2">
         <v>6</v>
       </c>
@@ -34487,27 +34510,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:16">
       <c r="D55" s="2" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:16">
       <c r="D56" s="2" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:16">
       <c r="A58" s="2" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:16">
       <c r="B60" s="2" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:16">
       <c r="B61" s="2" t="s">
         <v>958</v>
       </c>
@@ -34522,14 +34545,8 @@
       <c r="P61" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="Q61" s="2" t="s">
-        <v>959</v>
-      </c>
-      <c r="R61" s="2" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18">
+    </row>
+    <row r="62" spans="1:16">
       <c r="B62" s="2" t="s">
         <v>961</v>
       </c>
@@ -34542,7 +34559,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:16">
       <c r="B63" s="2" t="s">
         <v>962</v>
       </c>
@@ -34561,16 +34578,8 @@
         <f>F66</f>
         <v>0</v>
       </c>
-      <c r="Q63" s="2" t="e">
-        <f>'CE-Allocation'!G68</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R63" s="2" t="e">
-        <f>P63-Q63</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18">
+    </row>
+    <row r="64" spans="1:16">
       <c r="B64" s="2" t="s">
         <v>964</v>
       </c>
@@ -34602,14 +34611,6 @@
         <f>-F63</f>
         <v>0</v>
       </c>
-      <c r="Q65" s="2" t="e">
-        <f>Q$63*P65/P$63</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R65" s="2" t="e">
-        <f>P65-Q65</f>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="66" spans="2:19">
       <c r="B66" s="2" t="s">
@@ -34630,38 +34631,6 @@
         <f>-'CE-Opex'!I37</f>
         <v>0</v>
       </c>
-      <c r="Q66" s="2" t="e">
-        <f>Q$63*P66/P$63</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R66" s="2" t="e">
-        <f>P66-Q66</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="68" spans="2:19" ht="16">
-      <c r="B68" s="2" t="s">
-        <v>1007</v>
-      </c>
-      <c r="G68" s="2" t="e">
-        <f>(('Summary of revenue'!J11+'Summary of revenue'!J63)/'Summary of revenue'!J62)-'Summary of revenue'!J61</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>967</v>
-      </c>
-      <c r="P68" s="2">
-        <f>-SUM(P65:P67)</f>
-        <v>0</v>
-      </c>
-      <c r="Q68" s="2" t="e">
-        <f>-SUM(Q65:Q67)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R68" s="2" t="e">
-        <f>P68-Q68</f>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="69" spans="2:19">
       <c r="M69" s="2" t="s">
@@ -34671,14 +34640,6 @@
         <f>SUM(P63:P67)</f>
         <v>0</v>
       </c>
-      <c r="Q69" s="2" t="e">
-        <f>SUM(Q63:Q67)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R69" s="2" t="e">
-        <f>P69-Q69</f>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="71" spans="2:19" ht="39" customHeight="1">
       <c r="L71" s="2" t="s">
@@ -34746,24 +34707,24 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F75" s="2" t="e">
-        <f>$R$69*K52</f>
+        <f>$P$69*K52</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G75" s="2" t="e">
-        <f>$R$69*L52</f>
+        <f>$P$69*L52</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H75" s="2" t="e">
-        <f>$R$69*M52</f>
+        <f>$P$69*M52</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I75" s="2" t="e">
-        <f>$R$69*(N52+O52)</f>
+        <f>$P$69*(N52+O52)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J75" s="2" t="e">
-        <f>R68</f>
-        <v>#DIV/0!</v>
+      <c r="J75" s="2">
+        <f>P68</f>
+        <v>0</v>
       </c>
       <c r="L75" s="2" t="e">
         <f>F75*100000000/'Calc-Units'!E23</f>
@@ -34904,7 +34865,7 @@
     <row r="1" spans="1:7" ht="20" customHeight="1">
       <c r="A1" s="4" t="str">
         <f>"CC-Summary for Method M ("&amp;'CC-Net capex'!B5&amp;") for "&amp;Inputs!B6&amp;" in "&amp;Inputs!C6&amp;"  Status: "&amp;Inputs!D6&amp;""</f>
-        <v>CC-Summary for Method M (No option selected) for #VALUE! in #VALUE!  Status: #VALUE!</v>
+        <v>CC-Summary for Method M (No option selected) for no company in no year  Status: no data version</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14" customHeight="1">
@@ -35161,7 +35122,7 @@
     <tabColor rgb="FFFFFFC4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -35176,7 +35137,7 @@
     <row r="1" spans="1:7" ht="20" customHeight="1">
       <c r="A1" s="4" t="str">
         <f>"CE-Summary for Method M ("&amp;'CE-Net capex'!B5&amp;") for "&amp;Inputs!B6&amp;" in "&amp;Inputs!C6&amp;"  Status: "&amp;Inputs!D6&amp;""</f>
-        <v>CE-Summary for Method M (No option selected) for #VALUE! in #VALUE!  Status: #VALUE!</v>
+        <v>CE-Summary for Method M (No option selected) for no company in no year  Status: no data version</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14" customHeight="1">
@@ -35374,41 +35335,6 @@
       </c>
       <c r="G10" s="2" t="s">
         <v>980</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="14" customHeight="1">
-      <c r="B12" s="2" t="s">
-        <v>986</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>987</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>988</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="14" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>990</v>
-      </c>
-      <c r="B13" s="2" t="e">
-        <f>C9*(1-C10*Inputs!B12)+B9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C13" s="2" t="e">
-        <f>C9 +D9+(E9*(1-Inputs!B13*E10))+B9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D13" s="2" t="e">
-        <f>(D9 + E9  *(1-Inputs!B13* E10))/(1-C9-B9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" s="2" t="e">
-        <f>E9*(1-Inputs!B13*E10)/(1-B9-C9-D9)</f>
-        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -35434,7 +35360,7 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -35444,7 +35370,7 @@
     <row r="1" spans="1:8" ht="19">
       <c r="A1" s="4" t="str">
         <f>"Results for Method M ("&amp;'CC-Net capex'!B5&amp;") for "&amp;Inputs!B6&amp;" in "&amp;Inputs!C6&amp;"  Status: "&amp;Inputs!D6&amp;""</f>
-        <v>Results for Method M (No option selected) for #VALUE! in #VALUE!  Status: #VALUE!</v>
+        <v>Results for Method M (No option selected) for no company in no year  Status: no data version</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -35465,7 +35391,7 @@
       <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="16">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="55" t="s">
         <v>984</v>
       </c>
       <c r="B3" s="45"/>
@@ -35580,7 +35506,7 @@
     <row r="1" spans="1:9" ht="19">
       <c r="A1" s="4" t="str">
         <f>"EDCM extension to Method M ("&amp;'CE-Net capex'!B5&amp;") for "&amp;Inputs!B6&amp;" in "&amp;Inputs!C6&amp;"  Status: "&amp;Inputs!D6&amp;""</f>
-        <v>EDCM extension to Method M (No option selected) for #VALUE! in #VALUE!  Status: #VALUE!</v>
+        <v>EDCM extension to Method M (No option selected) for no company in no year  Status: no data version</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -36147,18 +36073,18 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="15"/>
-      <c r="B39" s="78" t="s">
+      <c r="B39" s="80" t="s">
         <v>1002</v>
       </c>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="78" t="s">
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="80" t="s">
         <v>1025</v>
       </c>
-      <c r="G39" s="78"/>
-      <c r="H39" s="78"/>
-      <c r="I39" s="78"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="80"/>
+      <c r="I39" s="80"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="15"/>
@@ -36549,19 +36475,19 @@
         <v>997</v>
       </c>
       <c r="B59" s="44" t="e">
-        <f>MIN(1,B50)</f>
+        <f t="shared" ref="B59:E63" si="0">MIN(1,B50)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C59" s="44" t="e">
-        <f>MIN(1,C50)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D59" s="44" t="e">
-        <f>MIN(1,D50)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E59" s="44" t="e">
-        <f>MIN(1,E50)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -36570,19 +36496,19 @@
         <v>996</v>
       </c>
       <c r="B60" s="44" t="e">
-        <f>MIN(1,B51)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C60" s="44" t="e">
-        <f>MIN(1,C51)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D60" s="44" t="e">
-        <f>MIN(1,D51)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E60" s="44" t="e">
-        <f>MIN(1,E51)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -36591,19 +36517,19 @@
         <v>995</v>
       </c>
       <c r="B61" s="44" t="e">
-        <f>MIN(1,B52)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C61" s="44" t="e">
-        <f>MIN(1,C52)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D61" s="44" t="e">
-        <f>MIN(1,D52)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E61" s="44" t="e">
-        <f>MIN(1,E52)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -36612,19 +36538,19 @@
         <v>994</v>
       </c>
       <c r="B62" s="44" t="e">
-        <f>MIN(1,B53)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C62" s="44" t="e">
-        <f>MIN(1,C53)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D62" s="44" t="e">
-        <f>MIN(1,D53)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E62" s="44" t="e">
-        <f>MIN(1,E53)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -36633,19 +36559,19 @@
         <v>993</v>
       </c>
       <c r="B63" s="44" t="e">
-        <f>MIN(1,B54)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C63" s="44" t="e">
-        <f>MIN(1,C54)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D63" s="44" t="e">
-        <f>MIN(1,D54)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E63" s="44" t="e">
-        <f>MIN(1,E54)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/ModelM/Handmade/SchizoM.xlsx
+++ b/ModelM/Handmade/SchizoM.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="1080" windowWidth="28200" windowHeight="15300" tabRatio="735" firstSheet="25" activeTab="32"/>
+    <workbookView xWindow="300" yWindow="1080" windowWidth="28200" windowHeight="15300" tabRatio="735"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4268" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4269" uniqueCount="1052">
   <si>
     <t>UNLESS STATED OTHERWISE, THIS WORKBOOK IS ONLY A PROTOTYPE FOR TESTING PURPOSES AND ALL THE DATA IN THIS MODEL ARE FOR ILLUSTRATION ONLY.</t>
   </si>
@@ -3872,7 +3872,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="72">
+  <cellStyleXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3896,6 +3896,14 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4150,7 +4158,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="72">
+  <cellStyles count="80">
     <cellStyle name="Bad" xfId="11" builtinId="27" hidden="1"/>
     <cellStyle name="Calculation" xfId="15" builtinId="22" hidden="1"/>
     <cellStyle name="Check Cell" xfId="17" builtinId="23" hidden="1"/>
@@ -4207,6 +4215,14 @@
     <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="10" builtinId="26" hidden="1"/>
     <cellStyle name="Heading 1" xfId="6" builtinId="16" hidden="1"/>
     <cellStyle name="Heading 2" xfId="7" builtinId="17" hidden="1"/>
@@ -4696,7 +4712,7 @@
   </sheetPr>
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -15972,9 +15988,7 @@
   </sheetPr>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -16683,9 +16697,7 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -34632,6 +34644,15 @@
         <v>0</v>
       </c>
     </row>
+    <row r="68" spans="2:19">
+      <c r="M68" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="P68" s="2">
+        <f>-SUM(P65:P67)</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="69" spans="2:19">
       <c r="M69" s="2" t="s">
         <v>968</v>
@@ -35360,7 +35381,7 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -35905,19 +35926,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="50" t="e">
-        <f>'CE-Summary'!$F9*'EDCM discounts'!$B20</f>
+        <f>'CE-Summary'!$F9*$B20</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G28" s="50" t="e">
-        <f>'CE-Summary'!$F9*'EDCM discounts'!$B21</f>
+        <f>'CE-Summary'!$F9*$B21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H28" s="50" t="e">
-        <f>'CE-Summary'!$F9*'EDCM discounts'!$B22</f>
+        <f>'CE-Summary'!$F9*$B22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I28" s="50" t="e">
-        <f>'CE-Summary'!$F9*'EDCM discounts'!$B23</f>
+        <f>'CE-Summary'!$F9*$B23</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -36319,19 +36340,19 @@
         <v>997</v>
       </c>
       <c r="B50" s="44" t="e">
-        <f>(SUM('EDCM discounts'!B$28:I$28)-SUMPRODUCT('EDCM discounts'!B41:E41,'EDCM discounts'!F$28:I$28))/(1-SUMPRODUCT('EDCM discounts'!F41:I41,'EDCM discounts'!F$28:I$28))</f>
+        <f>(SUM(B$28:$I$28)-SUMPRODUCT($B41:$E41,$F$28:$I$28))/(1-SUMPRODUCT($F41:$I41,$F$28:$I$28))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C50" s="44" t="e">
-        <f>(SUM('EDCM discounts'!C$28:J$28)-SUMPRODUCT('EDCM discounts'!C41:F41,'EDCM discounts'!G$28:J$28))/(1-SUMPRODUCT('EDCM discounts'!G41:J41,'EDCM discounts'!G$28:J$28))</f>
+        <f>(SUM(D$28:$I$28)-SUMPRODUCT($B41:$E41,$F$28:$I$28))/(1-SUM($B$28:C$28)-SUMPRODUCT($F41:$I41,$F$28:$I$28))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D50" s="44" t="e">
-        <f>(SUM('EDCM discounts'!D$28:K$28)-SUMPRODUCT('EDCM discounts'!D41:G41,'EDCM discounts'!H$28:K$28))/(1-SUMPRODUCT('EDCM discounts'!H41:K41,'EDCM discounts'!H$28:K$28))</f>
+        <f>(SUM(E$28:$I$28)-SUMPRODUCT($B41:$E41,$F$28:$I$28))/(1-SUM($B$28:D$28)-SUMPRODUCT($F41:$I41,$F$28:$I$28))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E50" s="44" t="e">
-        <f>(SUM('EDCM discounts'!E$28:L$28)-SUMPRODUCT('EDCM discounts'!E41:H41,'EDCM discounts'!I$28:L$28))/(1-SUMPRODUCT('EDCM discounts'!I41:L41,'EDCM discounts'!I$28:L$28))</f>
+        <f>(SUM(F$28:$I$28)-SUMPRODUCT($B41:$E41,$F$28:$I$28))/(1-SUM($B$28:E$28)-SUMPRODUCT($F41:$I41,$F$28:$I$28))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F50" s="15"/>
@@ -36344,19 +36365,19 @@
         <v>996</v>
       </c>
       <c r="B51" s="44" t="e">
-        <f>(SUM('EDCM discounts'!B$28:I$28)-SUMPRODUCT('EDCM discounts'!B42:E42,'EDCM discounts'!F$28:I$28))/(1-SUMPRODUCT('EDCM discounts'!F42:I42,'EDCM discounts'!F$28:I$28))</f>
+        <f>(SUM(B$28:$I$28)-SUMPRODUCT($B42:$E42,$F$28:$I$28))/(1-SUMPRODUCT($F42:$I42,$F$28:$I$28))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C51" s="44" t="e">
-        <f>(SUM('EDCM discounts'!C$28:J$28)-SUMPRODUCT('EDCM discounts'!C42:F42,'EDCM discounts'!G$28:J$28))/(1-SUMPRODUCT('EDCM discounts'!G42:J42,'EDCM discounts'!G$28:J$28))</f>
+        <f>(SUM(D$28:$I$28)-SUMPRODUCT($B42:$E42,$F$28:$I$28))/(1-SUM($B$28:C$28)-SUMPRODUCT($F42:$I42,$F$28:$I$28))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D51" s="44" t="e">
-        <f>(SUM('EDCM discounts'!D$28:K$28)-SUMPRODUCT('EDCM discounts'!D42:G42,'EDCM discounts'!H$28:K$28))/(1-SUMPRODUCT('EDCM discounts'!H42:K42,'EDCM discounts'!H$28:K$28))</f>
+        <f>(SUM(E$28:$I$28)-SUMPRODUCT($B42:$E42,$F$28:$I$28))/(1-SUM($B$28:D$28)-SUMPRODUCT($F42:$I42,$F$28:$I$28))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E51" s="44" t="e">
-        <f>(SUM('EDCM discounts'!E$28:L$28)-SUMPRODUCT('EDCM discounts'!E42:H42,'EDCM discounts'!I$28:L$28))/(1-SUMPRODUCT('EDCM discounts'!I42:L42,'EDCM discounts'!I$28:L$28))</f>
+        <f>(SUM(F$28:$I$28)-SUMPRODUCT($B42:$E42,$F$28:$I$28))/(1-SUM($B$28:E$28)-SUMPRODUCT($F42:$I42,$F$28:$I$28))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F51" s="15"/>
@@ -36369,19 +36390,19 @@
         <v>995</v>
       </c>
       <c r="B52" s="44" t="e">
-        <f>(SUM('EDCM discounts'!B$28:I$28)-SUMPRODUCT('EDCM discounts'!B43:E43,'EDCM discounts'!F$28:I$28))/(1-SUMPRODUCT('EDCM discounts'!F43:I43,'EDCM discounts'!F$28:I$28))</f>
+        <f>(SUM(B$28:$I$28)-SUMPRODUCT($B43:$E43,$F$28:$I$28))/(1-SUMPRODUCT($F43:$I43,$F$28:$I$28))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C52" s="44" t="e">
-        <f>(SUM('EDCM discounts'!C$28:J$28)-SUMPRODUCT('EDCM discounts'!C43:F43,'EDCM discounts'!G$28:J$28))/(1-SUMPRODUCT('EDCM discounts'!G43:J43,'EDCM discounts'!G$28:J$28))</f>
+        <f>(SUM(D$28:$I$28)-SUMPRODUCT($B43:$E43,$F$28:$I$28))/(1-SUM($B$28:C$28)-SUMPRODUCT($F43:$I43,$F$28:$I$28))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D52" s="44" t="e">
-        <f>(SUM('EDCM discounts'!D$28:K$28)-SUMPRODUCT('EDCM discounts'!D43:G43,'EDCM discounts'!H$28:K$28))/(1-SUMPRODUCT('EDCM discounts'!H43:K43,'EDCM discounts'!H$28:K$28))</f>
+        <f>(SUM(E$28:$I$28)-SUMPRODUCT($B43:$E43,$F$28:$I$28))/(1-SUM($B$28:D$28)-SUMPRODUCT($F43:$I43,$F$28:$I$28))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E52" s="44" t="e">
-        <f>(SUM('EDCM discounts'!E$28:L$28)-SUMPRODUCT('EDCM discounts'!E43:H43,'EDCM discounts'!I$28:L$28))/(1-SUMPRODUCT('EDCM discounts'!I43:L43,'EDCM discounts'!I$28:L$28))</f>
+        <f>(SUM(F$28:$I$28)-SUMPRODUCT($B43:$E43,$F$28:$I$28))/(1-SUM($B$28:E$28)-SUMPRODUCT($F43:$I43,$F$28:$I$28))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F52" s="15"/>
@@ -36394,19 +36415,19 @@
         <v>994</v>
       </c>
       <c r="B53" s="44" t="e">
-        <f>(SUM('EDCM discounts'!B$28:I$28)-SUMPRODUCT('EDCM discounts'!B44:E44,'EDCM discounts'!F$28:I$28))/(1-SUMPRODUCT('EDCM discounts'!F44:I44,'EDCM discounts'!F$28:I$28))</f>
+        <f>(SUM(B$28:$I$28)-SUMPRODUCT($B44:$E44,$F$28:$I$28))/(1-SUMPRODUCT($F44:$I44,$F$28:$I$28))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C53" s="44" t="e">
-        <f>(SUM('EDCM discounts'!C$28:J$28)-SUMPRODUCT('EDCM discounts'!C44:F44,'EDCM discounts'!G$28:J$28))/(1-SUMPRODUCT('EDCM discounts'!G44:J44,'EDCM discounts'!G$28:J$28))</f>
+        <f>(SUM(D$28:$I$28)-SUMPRODUCT($B44:$E44,$F$28:$I$28))/(1-SUM($B$28:C$28)-SUMPRODUCT($F44:$I44,$F$28:$I$28))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D53" s="44" t="e">
-        <f>(SUM('EDCM discounts'!D$28:K$28)-SUMPRODUCT('EDCM discounts'!D44:G44,'EDCM discounts'!H$28:K$28))/(1-SUMPRODUCT('EDCM discounts'!H44:K44,'EDCM discounts'!H$28:K$28))</f>
+        <f>(SUM(E$28:$I$28)-SUMPRODUCT($B44:$E44,$F$28:$I$28))/(1-SUM($B$28:D$28)-SUMPRODUCT($F44:$I44,$F$28:$I$28))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E53" s="44" t="e">
-        <f>(SUM('EDCM discounts'!E$28:L$28)-SUMPRODUCT('EDCM discounts'!E44:H44,'EDCM discounts'!I$28:L$28))/(1-SUMPRODUCT('EDCM discounts'!I44:L44,'EDCM discounts'!I$28:L$28))</f>
+        <f>(SUM(F$28:$I$28)-SUMPRODUCT($B44:$E44,$F$28:$I$28))/(1-SUM($B$28:E$28)-SUMPRODUCT($F44:$I44,$F$28:$I$28))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F53" s="15"/>
@@ -36419,19 +36440,19 @@
         <v>993</v>
       </c>
       <c r="B54" s="44" t="e">
-        <f>(SUM('EDCM discounts'!B$28:I$28)-SUMPRODUCT('EDCM discounts'!B45:E45,'EDCM discounts'!F$28:I$28))/(1-SUMPRODUCT('EDCM discounts'!F45:I45,'EDCM discounts'!F$28:I$28))</f>
+        <f>(SUM(B$28:$I$28)-SUMPRODUCT($B45:$E45,$F$28:$I$28))/(1-SUMPRODUCT($F45:$I45,$F$28:$I$28))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C54" s="44" t="e">
-        <f>(SUM('EDCM discounts'!C$28:J$28)-SUMPRODUCT('EDCM discounts'!C45:F45,'EDCM discounts'!G$28:J$28))/(1-SUMPRODUCT('EDCM discounts'!G45:J45,'EDCM discounts'!G$28:J$28))</f>
+        <f>(SUM(D$28:$I$28)-SUMPRODUCT($B45:$E45,$F$28:$I$28))/(1-SUM($B$28:C$28)-SUMPRODUCT($F45:$I45,$F$28:$I$28))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D54" s="44" t="e">
-        <f>(SUM('EDCM discounts'!D$28:K$28)-SUMPRODUCT('EDCM discounts'!D45:G45,'EDCM discounts'!H$28:K$28))/(1-SUMPRODUCT('EDCM discounts'!H45:K45,'EDCM discounts'!H$28:K$28))</f>
+        <f>(SUM(E$28:$I$28)-SUMPRODUCT($B45:$E45,$F$28:$I$28))/(1-SUM($B$28:D$28)-SUMPRODUCT($F45:$I45,$F$28:$I$28))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E54" s="44" t="e">
-        <f>(SUM('EDCM discounts'!E$28:L$28)-SUMPRODUCT('EDCM discounts'!E45:H45,'EDCM discounts'!I$28:L$28))/(1-SUMPRODUCT('EDCM discounts'!I45:L45,'EDCM discounts'!I$28:L$28))</f>
+        <f>(SUM(F$28:$I$28)-SUMPRODUCT($B45:$E45,$F$28:$I$28))/(1-SUM($B$28:E$28)-SUMPRODUCT($F45:$I45,$F$28:$I$28))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F54" s="15"/>
